--- a/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -740,22 +632,22 @@
         <v>0.9994162083970237</v>
       </c>
       <c r="E3">
-        <v>1.000145949058263</v>
+        <v>0.9994162083970237</v>
       </c>
       <c r="F3">
         <v>1.000145949058263</v>
       </c>
       <c r="G3">
-        <v>1.000389194814622</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="H3">
         <v>0.9996789148835981</v>
       </c>
       <c r="I3">
+        <v>1.000389194814622</v>
+      </c>
+      <c r="J3">
         <v>1.000145949058263</v>
-      </c>
-      <c r="J3">
-        <v>0.9994162083970237</v>
       </c>
       <c r="K3">
         <v>1.000145949058263</v>
@@ -788,7 +680,7 @@
         <v>0.9999870275450053</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>1.000281751414472</v>
       </c>
       <c r="D4">
-        <v>0.9988729970463192</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="E4">
-        <v>1.000281751414472</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="F4">
         <v>1.000281751414472</v>
       </c>
       <c r="G4">
-        <v>1.000751335312004</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="H4">
         <v>0.9993801498801717</v>
       </c>
       <c r="I4">
+        <v>1.000751335312004</v>
+      </c>
+      <c r="J4">
         <v>1.000281751414472</v>
-      </c>
-      <c r="J4">
-        <v>0.9988729970463192</v>
       </c>
       <c r="K4">
         <v>1.000281751414472</v>
@@ -826,10 +718,10 @@
         <v>1.000281751414472</v>
       </c>
       <c r="M4">
-        <v>0.9995773742303957</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="N4">
-        <v>0.9995773742303957</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="O4">
         <v>0.9995116327803211</v>
@@ -850,7 +742,7 @@
         <v>0.9999749560803187</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -864,22 +756,22 @@
         <v>0.9978402404059669</v>
       </c>
       <c r="E5">
-        <v>1.000539942342606</v>
+        <v>0.9978402404059669</v>
       </c>
       <c r="F5">
         <v>1.000539942342606</v>
       </c>
       <c r="G5">
-        <v>1.001439841989515</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="H5">
         <v>0.998812136456707</v>
       </c>
       <c r="I5">
+        <v>1.001439841989515</v>
+      </c>
+      <c r="J5">
         <v>1.000539942342606</v>
-      </c>
-      <c r="J5">
-        <v>0.9978402404059669</v>
       </c>
       <c r="K5">
         <v>1.000539942342606</v>
@@ -912,7 +804,7 @@
         <v>0.9999520076466676</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -926,22 +818,22 @@
         <v>0.9968323183841746</v>
       </c>
       <c r="E6">
-        <v>1.000791924014674</v>
+        <v>0.9968323183841746</v>
       </c>
       <c r="F6">
         <v>1.000791924014674</v>
       </c>
       <c r="G6">
-        <v>1.002111785868413</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="H6">
         <v>0.9982577697802155</v>
       </c>
       <c r="I6">
+        <v>1.002111785868413</v>
+      </c>
+      <c r="J6">
         <v>1.000791924014674</v>
-      </c>
-      <c r="J6">
-        <v>0.9968323183841746</v>
       </c>
       <c r="K6">
         <v>1.000791924014674</v>
@@ -974,7 +866,7 @@
         <v>0.9999296076794707</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,22 +880,22 @@
         <v>0.9999579251812855</v>
       </c>
       <c r="E7">
-        <v>1.000010519630263</v>
+        <v>0.9999579251812855</v>
       </c>
       <c r="F7">
         <v>1.000010519630263</v>
       </c>
       <c r="G7">
-        <v>1.000028049982216</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="H7">
         <v>0.9999768589922232</v>
       </c>
       <c r="I7">
+        <v>1.000028049982216</v>
+      </c>
+      <c r="J7">
         <v>1.000010519630263</v>
-      </c>
-      <c r="J7">
-        <v>0.9999579251812855</v>
       </c>
       <c r="K7">
         <v>1.000010519630263</v>
@@ -1033,10 +925,10 @@
         <v>0.9999973710180186</v>
       </c>
       <c r="T7">
-        <v>0.9999990655077523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999990655077521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1050,22 +942,22 @@
         <v>0.9998885136232976</v>
       </c>
       <c r="E8">
-        <v>1.000027872672134</v>
+        <v>0.9998885136232976</v>
       </c>
       <c r="F8">
         <v>1.000027872672134</v>
       </c>
       <c r="G8">
+        <v>1.000027872672134</v>
+      </c>
+      <c r="H8">
+        <v>0.9999386827378191</v>
+      </c>
+      <c r="I8">
         <v>1.000074324540777</v>
       </c>
-      <c r="H8">
-        <v>0.9999386827378189</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.000027872672134</v>
-      </c>
-      <c r="J8">
-        <v>0.9998885136232976</v>
       </c>
       <c r="K8">
         <v>1.000027872672134</v>
@@ -1098,7 +990,7 @@
         <v>0.999997523153049</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1112,22 +1004,22 @@
         <v>0.9998463549924856</v>
       </c>
       <c r="E9">
-        <v>1.00003841155262</v>
+        <v>0.9998463549924856</v>
       </c>
       <c r="F9">
         <v>1.00003841155262</v>
       </c>
       <c r="G9">
-        <v>1.000102430008383</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="H9">
         <v>0.9999154953768242</v>
       </c>
       <c r="I9">
+        <v>1.000102430008383</v>
+      </c>
+      <c r="J9">
         <v>1.00003841155262</v>
-      </c>
-      <c r="J9">
-        <v>0.9998463549924856</v>
       </c>
       <c r="K9">
         <v>1.00003841155262</v>
@@ -1136,31 +1028,31 @@
         <v>1.00003841155262</v>
       </c>
       <c r="M9">
-        <v>0.9999423832725528</v>
+        <v>0.9999423832725527</v>
       </c>
       <c r="N9">
-        <v>0.9999423832725528</v>
+        <v>0.9999423832725527</v>
       </c>
       <c r="O9">
-        <v>0.9999334206406433</v>
+        <v>0.9999334206406432</v>
       </c>
       <c r="P9">
-        <v>0.9999743926992419</v>
+        <v>0.9999743926992416</v>
       </c>
       <c r="Q9">
-        <v>0.9999743926992419</v>
+        <v>0.9999743926992416</v>
       </c>
       <c r="R9">
-        <v>0.9999903974125864</v>
+        <v>0.9999903974125861</v>
       </c>
       <c r="S9">
-        <v>0.9999903974125864</v>
+        <v>0.9999903974125861</v>
       </c>
       <c r="T9">
-        <v>0.9999965858392589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999965858392587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1174,22 +1066,22 @@
         <v>0.9996669636589783</v>
       </c>
       <c r="E10">
-        <v>1.000083260274715</v>
+        <v>0.9996669636589783</v>
       </c>
       <c r="F10">
         <v>1.000083260274715</v>
       </c>
       <c r="G10">
-        <v>1.000222023771561</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="H10">
         <v>0.9998168307680889</v>
       </c>
       <c r="I10">
+        <v>1.000222023771561</v>
+      </c>
+      <c r="J10">
         <v>1.000083260274715</v>
-      </c>
-      <c r="J10">
-        <v>0.9996669636589783</v>
       </c>
       <c r="K10">
         <v>1.000083260274715</v>
@@ -1222,7 +1114,7 @@
         <v>0.9999925998371291</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1236,22 +1128,22 @@
         <v>0.999449187071345</v>
       </c>
       <c r="E11">
-        <v>1.000137705743925</v>
+        <v>0.999449187071345</v>
       </c>
       <c r="F11">
         <v>1.000137705743925</v>
       </c>
       <c r="G11">
-        <v>1.000367210238212</v>
+        <v>1.000137705743925</v>
       </c>
       <c r="H11">
         <v>0.9996970508790239</v>
       </c>
       <c r="I11">
+        <v>1.000367210238212</v>
+      </c>
+      <c r="J11">
         <v>1.000137705743925</v>
-      </c>
-      <c r="J11">
-        <v>0.999449187071345</v>
       </c>
       <c r="K11">
         <v>1.000137705743925</v>
@@ -1260,31 +1152,31 @@
         <v>1.000137705743925</v>
       </c>
       <c r="M11">
-        <v>0.9997934464076348</v>
+        <v>0.999793446407635</v>
       </c>
       <c r="N11">
-        <v>0.9997934464076348</v>
+        <v>0.999793446407635</v>
       </c>
       <c r="O11">
-        <v>0.9997613145647645</v>
+        <v>0.9997613145647647</v>
       </c>
       <c r="P11">
-        <v>0.9999081995197314</v>
+        <v>0.9999081995197315</v>
       </c>
       <c r="Q11">
-        <v>0.9999081995197314</v>
+        <v>0.9999081995197315</v>
       </c>
       <c r="R11">
-        <v>0.9999655760757797</v>
+        <v>0.99996557607578</v>
       </c>
       <c r="S11">
-        <v>0.9999655760757797</v>
+        <v>0.99996557607578</v>
       </c>
       <c r="T11">
-        <v>0.9999877609033924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999877609033926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984918490066719</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="D12">
         <v>1.006032599017142</v>
       </c>
       <c r="E12">
-        <v>0.9984918490066719</v>
+        <v>1.006032599017142</v>
       </c>
       <c r="F12">
-        <v>0.9984918490066719</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="G12">
-        <v>0.9959782667326055</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="H12">
         <v>1.003317929227438</v>
       </c>
       <c r="I12">
-        <v>0.9984918490066719</v>
+        <v>0.9959782667326055</v>
       </c>
       <c r="J12">
-        <v>1.006032599017142</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="K12">
-        <v>0.9984918490066719</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="L12">
-        <v>0.9984918490066719</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="M12">
         <v>1.002262224011907</v>
@@ -1346,7 +1238,7 @@
         <v>1.000134056999533</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1360,22 +1252,22 @@
         <v>1.001560590184448</v>
       </c>
       <c r="E13">
-        <v>0.9996098550115712</v>
+        <v>1.001560590184448</v>
       </c>
       <c r="F13">
         <v>0.9996098550115712</v>
       </c>
       <c r="G13">
-        <v>0.9989596082727059</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="H13">
         <v>1.000858318299684</v>
       </c>
       <c r="I13">
+        <v>0.9989596082727059</v>
+      </c>
+      <c r="J13">
         <v>0.9996098550115712</v>
-      </c>
-      <c r="J13">
-        <v>1.001560590184448</v>
       </c>
       <c r="K13">
         <v>0.9996098550115712</v>
@@ -1408,7 +1300,7 @@
         <v>1.000034680298592</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,40 +1308,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9963361977199917</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="D14">
         <v>1.014655233842102</v>
       </c>
       <c r="E14">
-        <v>0.9963361977199917</v>
+        <v>1.014655233842102</v>
       </c>
       <c r="F14">
-        <v>0.9963361977199917</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="G14">
-        <v>0.9902298460400668</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="H14">
         <v>1.00806036977633</v>
       </c>
       <c r="I14">
-        <v>0.9963361977199917</v>
+        <v>0.9902298460400668</v>
       </c>
       <c r="J14">
-        <v>1.014655233842102</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="K14">
-        <v>0.9963361977199917</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="L14">
-        <v>0.9963361977199917</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="M14">
-        <v>1.005495715781047</v>
+        <v>1.005495715781046</v>
       </c>
       <c r="N14">
-        <v>1.005495715781047</v>
+        <v>1.005495715781046</v>
       </c>
       <c r="O14">
         <v>1.006350600446141</v>
@@ -1470,7 +1362,7 @@
         <v>1.000325673803079</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1484,22 +1376,22 @@
         <v>1.003884626040816</v>
       </c>
       <c r="E15">
-        <v>0.9990288410802179</v>
+        <v>1.003884626040816</v>
       </c>
       <c r="F15">
         <v>0.9990288410802179</v>
       </c>
       <c r="G15">
-        <v>0.9974102468397326</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="H15">
         <v>1.002136542597005</v>
       </c>
       <c r="I15">
+        <v>0.9974102468397326</v>
+      </c>
+      <c r="J15">
         <v>0.9990288410802179</v>
-      </c>
-      <c r="J15">
-        <v>1.003884626040816</v>
       </c>
       <c r="K15">
         <v>0.9990288410802179</v>
@@ -1532,7 +1424,7 @@
         <v>1.000086323119701</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000603709342</v>
+        <v>1.002846818256537</v>
       </c>
       <c r="D16">
-        <v>0.9999975885489687</v>
+        <v>0.9886127482519158</v>
       </c>
       <c r="E16">
-        <v>1.000000603709342</v>
+        <v>0.9886127482519158</v>
       </c>
       <c r="F16">
-        <v>1.000000603709342</v>
+        <v>1.002846818256537</v>
       </c>
       <c r="G16">
-        <v>1.000001607901219</v>
+        <v>1.002846818256537</v>
       </c>
       <c r="H16">
-        <v>0.9999986738678638</v>
+        <v>0.9937370132673892</v>
       </c>
       <c r="I16">
-        <v>1.000000603709342</v>
+        <v>1.007591507864481</v>
       </c>
       <c r="J16">
-        <v>0.9999975885489687</v>
+        <v>1.002846818256537</v>
       </c>
       <c r="K16">
-        <v>1.000000603709342</v>
+        <v>1.002846818256537</v>
       </c>
       <c r="L16">
-        <v>1.000000603709342</v>
+        <v>1.002846818256537</v>
       </c>
       <c r="M16">
-        <v>0.9999990961291555</v>
+        <v>0.9957297832542263</v>
       </c>
       <c r="N16">
-        <v>0.9999990961291555</v>
+        <v>0.9957297832542263</v>
       </c>
       <c r="O16">
-        <v>0.9999989553753915</v>
+        <v>0.9950655265919472</v>
       </c>
       <c r="P16">
-        <v>0.9999995986558844</v>
+        <v>0.9981021282549966</v>
       </c>
       <c r="Q16">
-        <v>0.9999995986558844</v>
+        <v>0.9981021282549966</v>
       </c>
       <c r="R16">
-        <v>0.9999998499192488</v>
+        <v>0.9992883007553817</v>
       </c>
       <c r="S16">
-        <v>0.9999998499192488</v>
+        <v>0.9992883007553817</v>
       </c>
       <c r="T16">
-        <v>0.9999999469076797</v>
+        <v>0.9997469540255661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000012764622813</v>
+        <v>1.00232983730575</v>
       </c>
       <c r="D17">
-        <v>0.9999489454760588</v>
+        <v>0.99068066703529</v>
       </c>
       <c r="E17">
-        <v>1.000012764622813</v>
+        <v>0.99068066703529</v>
       </c>
       <c r="F17">
-        <v>1.000012764622813</v>
+        <v>1.00232983730575</v>
       </c>
       <c r="G17">
-        <v>1.000034036523309</v>
+        <v>1.00232983730575</v>
       </c>
       <c r="H17">
-        <v>0.9999719202898323</v>
+        <v>0.9948743678951173</v>
       </c>
       <c r="I17">
-        <v>1.000012764622813</v>
+        <v>1.006212892961942</v>
       </c>
       <c r="J17">
-        <v>0.9999489454760588</v>
+        <v>1.00232983730575</v>
       </c>
       <c r="K17">
-        <v>1.000012764622813</v>
+        <v>1.00232983730575</v>
       </c>
       <c r="L17">
-        <v>1.000012764622813</v>
+        <v>1.00232983730575</v>
       </c>
       <c r="M17">
-        <v>0.9999808550494358</v>
+        <v>0.99650525217052</v>
       </c>
       <c r="N17">
-        <v>0.9999808550494358</v>
+        <v>0.99650525217052</v>
       </c>
       <c r="O17">
-        <v>0.9999778767962346</v>
+        <v>0.9959616240787191</v>
       </c>
       <c r="P17">
-        <v>0.9999914915738947</v>
+        <v>0.99844678054893</v>
       </c>
       <c r="Q17">
-        <v>0.9999914915738947</v>
+        <v>0.99844678054893</v>
       </c>
       <c r="R17">
-        <v>0.9999968098361243</v>
+        <v>0.999417544738135</v>
       </c>
       <c r="S17">
-        <v>0.9999968098361243</v>
+        <v>0.999417544738135</v>
       </c>
       <c r="T17">
-        <v>0.9999988660262731</v>
+        <v>0.9997929066349333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000044935771085</v>
+        <v>1.00129083388501</v>
       </c>
       <c r="D18">
-        <v>0.9998202550612528</v>
+        <v>0.9948366730188555</v>
       </c>
       <c r="E18">
-        <v>1.000044935771085</v>
+        <v>0.9948366730188555</v>
       </c>
       <c r="F18">
-        <v>1.000044935771085</v>
+        <v>1.00129083388501</v>
       </c>
       <c r="G18">
-        <v>1.00011983004663</v>
+        <v>1.00129083388501</v>
       </c>
       <c r="H18">
-        <v>0.9999011414177055</v>
+        <v>0.9971601699326964</v>
       </c>
       <c r="I18">
-        <v>1.000044935771085</v>
+        <v>1.003442220192357</v>
       </c>
       <c r="J18">
-        <v>0.9998202550612528</v>
+        <v>1.00129083388501</v>
       </c>
       <c r="K18">
-        <v>1.000044935771085</v>
+        <v>1.00129083388501</v>
       </c>
       <c r="L18">
-        <v>1.000044935771085</v>
+        <v>1.00129083388501</v>
       </c>
       <c r="M18">
-        <v>0.9999325954161689</v>
+        <v>0.9980637534519328</v>
       </c>
       <c r="N18">
-        <v>0.9999325954161689</v>
+        <v>0.9980637534519328</v>
       </c>
       <c r="O18">
-        <v>0.9999221107500144</v>
+        <v>0.9977625589455207</v>
       </c>
       <c r="P18">
-        <v>0.9999700422011409</v>
+        <v>0.9991394469296253</v>
       </c>
       <c r="Q18">
-        <v>0.9999700422011409</v>
+        <v>0.9991394469296253</v>
       </c>
       <c r="R18">
-        <v>0.9999887655936268</v>
+        <v>0.9996772936684715</v>
       </c>
       <c r="S18">
-        <v>0.9999887655936268</v>
+        <v>0.9996772936684715</v>
       </c>
       <c r="T18">
-        <v>0.9999960056398071</v>
+        <v>0.9998852607998231</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="D19">
+        <v>0.9943181235444896</v>
+      </c>
+      <c r="E19">
+        <v>0.9943181235444896</v>
+      </c>
+      <c r="F19">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="G19">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="H19">
+        <v>0.9968749694657593</v>
+      </c>
+      <c r="I19">
+        <v>1.003787912591009</v>
+      </c>
+      <c r="J19">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="K19">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="L19">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="M19">
+        <v>0.997869294452284</v>
+      </c>
+      <c r="N19">
+        <v>0.997869294452284</v>
+      </c>
+      <c r="O19">
+        <v>0.9975378527901091</v>
+      </c>
+      <c r="P19">
+        <v>0.9990530180882154</v>
+      </c>
+      <c r="Q19">
+        <v>0.9990530180882154</v>
+      </c>
+      <c r="R19">
+        <v>0.9996448799061812</v>
+      </c>
+      <c r="S19">
+        <v>0.9996448799061812</v>
+      </c>
+      <c r="T19">
+        <v>0.9998737336135823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="D20">
+        <v>0.9999975885489688</v>
+      </c>
+      <c r="E20">
+        <v>0.9999975885489688</v>
+      </c>
+      <c r="F20">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="G20">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="H20">
+        <v>0.9999986738678638</v>
+      </c>
+      <c r="I20">
+        <v>1.000001607901219</v>
+      </c>
+      <c r="J20">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="K20">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="L20">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="M20">
+        <v>0.9999990961291556</v>
+      </c>
+      <c r="N20">
+        <v>0.9999990961291556</v>
+      </c>
+      <c r="O20">
+        <v>0.9999989553753917</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995986558844</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999995986558844</v>
+      </c>
+      <c r="R20">
+        <v>0.9999998499192488</v>
+      </c>
+      <c r="S20">
+        <v>0.9999998499192488</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999469076797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="D21">
+        <v>0.9999489454760588</v>
+      </c>
+      <c r="E21">
+        <v>0.9999489454760588</v>
+      </c>
+      <c r="F21">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="G21">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="H21">
+        <v>0.9999719202898323</v>
+      </c>
+      <c r="I21">
+        <v>1.000034036523309</v>
+      </c>
+      <c r="J21">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="K21">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="L21">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="M21">
+        <v>0.9999808550494358</v>
+      </c>
+      <c r="N21">
+        <v>0.9999808550494358</v>
+      </c>
+      <c r="O21">
+        <v>0.9999778767962346</v>
+      </c>
+      <c r="P21">
+        <v>0.9999914915738947</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999914915738947</v>
+      </c>
+      <c r="R21">
+        <v>0.9999968098361243</v>
+      </c>
+      <c r="S21">
+        <v>0.9999968098361243</v>
+      </c>
+      <c r="T21">
+        <v>0.9999988660262731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="D22">
+        <v>0.9998202550612528</v>
+      </c>
+      <c r="E22">
+        <v>0.9998202550612528</v>
+      </c>
+      <c r="F22">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="G22">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="H22">
+        <v>0.9999011414177055</v>
+      </c>
+      <c r="I22">
+        <v>1.00011983004663</v>
+      </c>
+      <c r="J22">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="K22">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="L22">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="M22">
+        <v>0.9999325954161689</v>
+      </c>
+      <c r="N22">
+        <v>0.9999325954161689</v>
+      </c>
+      <c r="O22">
+        <v>0.9999221107500144</v>
+      </c>
+      <c r="P22">
+        <v>0.9999700422011409</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999700422011409</v>
+      </c>
+      <c r="R22">
+        <v>0.9999887655936269</v>
+      </c>
+      <c r="S22">
+        <v>0.9999887655936269</v>
+      </c>
+      <c r="T22">
+        <v>0.9999960056398072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.00010527554848</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9995789131743381</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.9995789131743381</v>
+      </c>
+      <c r="F23">
         <v>1.00010527554848</v>
       </c>
-      <c r="F19">
+      <c r="G23">
         <v>1.00010527554848</v>
       </c>
-      <c r="G19">
+      <c r="H23">
+        <v>0.9997684049625631</v>
+      </c>
+      <c r="I23">
         <v>1.000280724771963</v>
       </c>
-      <c r="H19">
-        <v>0.9997684049625631</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
         <v>1.00010527554848</v>
       </c>
-      <c r="J19">
-        <v>0.9995789131743381</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.00010527554848</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.00010527554848</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9998420943614088</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9998420943614088</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9998175312284602</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999298214237657</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999298214237657</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999736849549442</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999736849549442</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999906449257171</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000145949058263</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="D3">
-        <v>0.9994162083970237</v>
+        <v>0.9937565660806944</v>
       </c>
       <c r="E3">
-        <v>0.9994162083970237</v>
+        <v>0.9937565660806944</v>
       </c>
       <c r="F3">
-        <v>1.000145949058263</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="G3">
-        <v>1.000145949058263</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="H3">
-        <v>0.9996789148835981</v>
+        <v>0.9965661109510059</v>
       </c>
       <c r="I3">
-        <v>1.000389194814622</v>
+        <v>1.004162288515847</v>
       </c>
       <c r="J3">
-        <v>1.000145949058263</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="K3">
-        <v>1.000145949058263</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="L3">
-        <v>1.000145949058263</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="M3">
-        <v>0.9997810787276432</v>
+        <v>0.9976587136095102</v>
       </c>
       <c r="N3">
-        <v>0.9997810787276432</v>
+        <v>0.9976587136095102</v>
       </c>
       <c r="O3">
-        <v>0.9997470241129616</v>
+        <v>0.9972945127233421</v>
       </c>
       <c r="P3">
-        <v>0.999902702171183</v>
+        <v>0.9989594294524489</v>
       </c>
       <c r="Q3">
-        <v>0.999902702171183</v>
+        <v>0.9989594294524489</v>
       </c>
       <c r="R3">
-        <v>0.999963513892953</v>
+        <v>0.9996097873739181</v>
       </c>
       <c r="S3">
-        <v>0.999963513892953</v>
+        <v>0.9996097873739181</v>
       </c>
       <c r="T3">
-        <v>0.9999870275450053</v>
+        <v>0.9998612581604208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000281751414472</v>
+        <v>1.001414729358929</v>
       </c>
       <c r="D4">
-        <v>0.9988729970463193</v>
+        <v>0.9943410907566103</v>
       </c>
       <c r="E4">
-        <v>0.9988729970463193</v>
+        <v>0.9943410907566103</v>
       </c>
       <c r="F4">
-        <v>1.000281751414472</v>
+        <v>1.001414729358929</v>
       </c>
       <c r="G4">
-        <v>1.000281751414472</v>
+        <v>1.001414729358929</v>
       </c>
       <c r="H4">
-        <v>0.9993801498801717</v>
+        <v>0.9968875995266444</v>
       </c>
       <c r="I4">
-        <v>1.000751335312004</v>
+        <v>1.003772605547895</v>
       </c>
       <c r="J4">
-        <v>1.000281751414472</v>
+        <v>1.001414729358929</v>
       </c>
       <c r="K4">
-        <v>1.000281751414472</v>
+        <v>1.001414729358929</v>
       </c>
       <c r="L4">
-        <v>1.000281751414472</v>
+        <v>1.001414729358929</v>
       </c>
       <c r="M4">
-        <v>0.9995773742303958</v>
+        <v>0.9978779100577695</v>
       </c>
       <c r="N4">
-        <v>0.9995773742303958</v>
+        <v>0.9978779100577695</v>
       </c>
       <c r="O4">
-        <v>0.9995116327803211</v>
+        <v>0.9975478065473945</v>
       </c>
       <c r="P4">
-        <v>0.999812166625088</v>
+        <v>0.9990568498248225</v>
       </c>
       <c r="Q4">
-        <v>0.999812166625088</v>
+        <v>0.9990568498248225</v>
       </c>
       <c r="R4">
-        <v>0.9999295628224341</v>
+        <v>0.9996463197083489</v>
       </c>
       <c r="S4">
-        <v>0.9999295628224341</v>
+        <v>0.9996463197083489</v>
       </c>
       <c r="T4">
-        <v>0.9999749560803187</v>
+        <v>0.9998742473179892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000539942342606</v>
+        <v>1.001837695417791</v>
       </c>
       <c r="D5">
-        <v>0.9978402404059669</v>
+        <v>0.9926492326145552</v>
       </c>
       <c r="E5">
-        <v>0.9978402404059669</v>
+        <v>0.9926492326145552</v>
       </c>
       <c r="F5">
-        <v>1.000539942342606</v>
+        <v>1.001837695417791</v>
       </c>
       <c r="G5">
-        <v>1.000539942342606</v>
+        <v>1.001837695417791</v>
       </c>
       <c r="H5">
-        <v>0.998812136456707</v>
+        <v>0.9959570787061995</v>
       </c>
       <c r="I5">
-        <v>1.001439841989515</v>
+        <v>1.004900512830188</v>
       </c>
       <c r="J5">
-        <v>1.000539942342606</v>
+        <v>1.001837695417791</v>
       </c>
       <c r="K5">
-        <v>1.000539942342606</v>
+        <v>1.001837695417791</v>
       </c>
       <c r="L5">
-        <v>1.000539942342606</v>
+        <v>1.001837695417791</v>
       </c>
       <c r="M5">
-        <v>0.9991900913742864</v>
+        <v>0.9972434640161729</v>
       </c>
       <c r="N5">
-        <v>0.9991900913742864</v>
+        <v>0.9972434640161729</v>
       </c>
       <c r="O5">
-        <v>0.9990641064017599</v>
+        <v>0.9968146689128484</v>
       </c>
       <c r="P5">
-        <v>0.9996400416970594</v>
+        <v>0.9987748744833788</v>
       </c>
       <c r="Q5">
-        <v>0.9996400416970594</v>
+        <v>0.9987748744833788</v>
       </c>
       <c r="R5">
-        <v>0.999865016858446</v>
+        <v>0.9995405797169818</v>
       </c>
       <c r="S5">
-        <v>0.999865016858446</v>
+        <v>0.9995405797169818</v>
       </c>
       <c r="T5">
-        <v>0.9999520076466676</v>
+        <v>0.9998366517340523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000791924014674</v>
+        <v>1.002095360568182</v>
       </c>
       <c r="D6">
-        <v>0.9968323183841746</v>
+        <v>0.9916185723863633</v>
       </c>
       <c r="E6">
-        <v>0.9968323183841746</v>
+        <v>0.9916185723863633</v>
       </c>
       <c r="F6">
-        <v>1.000791924014674</v>
+        <v>1.002095360568182</v>
       </c>
       <c r="G6">
-        <v>1.000791924014674</v>
+        <v>1.002095360568182</v>
       </c>
       <c r="H6">
-        <v>0.9982577697802155</v>
+        <v>0.9953902173863639</v>
       </c>
       <c r="I6">
-        <v>1.002111785868413</v>
+        <v>1.005587607954546</v>
       </c>
       <c r="J6">
-        <v>1.000791924014674</v>
+        <v>1.002095360568182</v>
       </c>
       <c r="K6">
-        <v>1.000791924014674</v>
+        <v>1.002095360568182</v>
       </c>
       <c r="L6">
-        <v>1.000791924014674</v>
+        <v>1.002095360568182</v>
       </c>
       <c r="M6">
-        <v>0.9988121211994243</v>
+        <v>0.9968569664772725</v>
       </c>
       <c r="N6">
-        <v>0.9988121211994243</v>
+        <v>0.9968569664772725</v>
       </c>
       <c r="O6">
-        <v>0.9986273373930213</v>
+        <v>0.9963680501136363</v>
       </c>
       <c r="P6">
-        <v>0.9994720554711742</v>
+        <v>0.9986030978409088</v>
       </c>
       <c r="Q6">
-        <v>0.9994720554711742</v>
+        <v>0.9986030978409088</v>
       </c>
       <c r="R6">
-        <v>0.9998020226070492</v>
+        <v>0.9994761635227271</v>
       </c>
       <c r="S6">
-        <v>0.9998020226070492</v>
+        <v>0.9994761635227271</v>
       </c>
       <c r="T6">
-        <v>0.9999296076794707</v>
+        <v>0.9998137465719698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000010519630263</v>
+        <v>1.003563619004516</v>
       </c>
       <c r="D7">
-        <v>0.9999579251812855</v>
+        <v>0.9857455294610371</v>
       </c>
       <c r="E7">
-        <v>0.9999579251812855</v>
+        <v>0.9857455294610371</v>
       </c>
       <c r="F7">
-        <v>1.000010519630263</v>
+        <v>1.003563619004516</v>
       </c>
       <c r="G7">
-        <v>1.000010519630263</v>
+        <v>1.003563619004516</v>
       </c>
       <c r="H7">
-        <v>0.9999768589922232</v>
+        <v>0.9921600410782595</v>
       </c>
       <c r="I7">
-        <v>1.000028049982216</v>
+        <v>1.009502977302972</v>
       </c>
       <c r="J7">
-        <v>1.000010519630263</v>
+        <v>1.003563619004516</v>
       </c>
       <c r="K7">
-        <v>1.000010519630263</v>
+        <v>1.003563619004516</v>
       </c>
       <c r="L7">
-        <v>1.000010519630263</v>
+        <v>1.003563619004516</v>
       </c>
       <c r="M7">
-        <v>0.9999842224057742</v>
+        <v>0.9946545742327764</v>
       </c>
       <c r="N7">
-        <v>0.9999842224057742</v>
+        <v>0.9946545742327764</v>
       </c>
       <c r="O7">
-        <v>0.9999817679345906</v>
+        <v>0.9938230631812708</v>
       </c>
       <c r="P7">
-        <v>0.9999929881472704</v>
+        <v>0.997624255823356</v>
       </c>
       <c r="Q7">
-        <v>0.9999929881472704</v>
+        <v>0.997624255823356</v>
       </c>
       <c r="R7">
-        <v>0.9999973710180186</v>
+        <v>0.999109096618646</v>
       </c>
       <c r="S7">
-        <v>0.9999973710180186</v>
+        <v>0.999109096618646</v>
       </c>
       <c r="T7">
-        <v>0.9999990655077521</v>
+        <v>0.9996832341426359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000027872672134</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="D8">
-        <v>0.9998885136232976</v>
+        <v>0.9856637831376085</v>
       </c>
       <c r="E8">
-        <v>0.9998885136232976</v>
+        <v>0.9856637831376085</v>
       </c>
       <c r="F8">
-        <v>1.000027872672134</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="G8">
-        <v>1.000027872672134</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="H8">
-        <v>0.9999386827378191</v>
+        <v>0.9921150806046503</v>
       </c>
       <c r="I8">
-        <v>1.000074324540777</v>
+        <v>1.00955747490653</v>
       </c>
       <c r="J8">
-        <v>1.000027872672134</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="K8">
-        <v>1.000027872672134</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="L8">
-        <v>1.000027872672134</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="M8">
-        <v>0.9999581931477156</v>
+        <v>0.9946239193292826</v>
       </c>
       <c r="N8">
-        <v>0.9999581931477156</v>
+        <v>0.9946239193292826</v>
       </c>
       <c r="O8">
-        <v>0.9999516896777502</v>
+        <v>0.9937876397544052</v>
       </c>
       <c r="P8">
-        <v>0.999981419655855</v>
+        <v>0.9976106313931741</v>
       </c>
       <c r="Q8">
-        <v>0.999981419655855</v>
+        <v>0.9976106313931741</v>
       </c>
       <c r="R8">
-        <v>0.9999930329099247</v>
+        <v>0.9991039874251197</v>
       </c>
       <c r="S8">
-        <v>0.9999930329099247</v>
+        <v>0.9991039874251197</v>
       </c>
       <c r="T8">
-        <v>0.999997523153049</v>
+        <v>0.9996814175352765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00003841155262</v>
+        <v>1.003602334702048</v>
       </c>
       <c r="D9">
-        <v>0.9998463549924856</v>
+        <v>0.985590666728532</v>
       </c>
       <c r="E9">
-        <v>0.9998463549924856</v>
+        <v>0.985590666728532</v>
       </c>
       <c r="F9">
-        <v>1.00003841155262</v>
+        <v>1.003602334702048</v>
       </c>
       <c r="G9">
-        <v>1.00003841155262</v>
+        <v>1.003602334702048</v>
       </c>
       <c r="H9">
-        <v>0.9999154953768242</v>
+        <v>0.9920748665711276</v>
       </c>
       <c r="I9">
-        <v>1.000102430008383</v>
+        <v>1.009606219135281</v>
       </c>
       <c r="J9">
-        <v>1.00003841155262</v>
+        <v>1.003602334702048</v>
       </c>
       <c r="K9">
-        <v>1.00003841155262</v>
+        <v>1.003602334702048</v>
       </c>
       <c r="L9">
-        <v>1.00003841155262</v>
+        <v>1.003602334702048</v>
       </c>
       <c r="M9">
-        <v>0.9999423832725527</v>
+        <v>0.9945965007152902</v>
       </c>
       <c r="N9">
-        <v>0.9999423832725527</v>
+        <v>0.9945965007152902</v>
       </c>
       <c r="O9">
-        <v>0.9999334206406432</v>
+        <v>0.9937559560005692</v>
       </c>
       <c r="P9">
-        <v>0.9999743926992416</v>
+        <v>0.9975984453775428</v>
       </c>
       <c r="Q9">
-        <v>0.9999743926992416</v>
+        <v>0.9975984453775428</v>
       </c>
       <c r="R9">
-        <v>0.9999903974125861</v>
+        <v>0.9990994177086692</v>
       </c>
       <c r="S9">
-        <v>0.9999903974125861</v>
+        <v>0.9990994177086692</v>
       </c>
       <c r="T9">
-        <v>0.9999965858392587</v>
+        <v>0.9996797927568476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000083260274715</v>
+        <v>1.003637881424289</v>
       </c>
       <c r="D10">
-        <v>0.9996669636589783</v>
+        <v>0.9854484804706292</v>
       </c>
       <c r="E10">
-        <v>0.9996669636589783</v>
+        <v>0.9854484804706292</v>
       </c>
       <c r="F10">
-        <v>1.000083260274715</v>
+        <v>1.003637881424289</v>
       </c>
       <c r="G10">
-        <v>1.000083260274715</v>
+        <v>1.003637881424289</v>
       </c>
       <c r="H10">
-        <v>0.9998168307680889</v>
+        <v>0.9919966641550602</v>
       </c>
       <c r="I10">
-        <v>1.000222023771561</v>
+        <v>1.009701010238436</v>
       </c>
       <c r="J10">
-        <v>1.000083260274715</v>
+        <v>1.003637881424289</v>
       </c>
       <c r="K10">
-        <v>1.000083260274715</v>
+        <v>1.003637881424289</v>
       </c>
       <c r="L10">
-        <v>1.000083260274715</v>
+        <v>1.003637881424289</v>
       </c>
       <c r="M10">
-        <v>0.9998751119668468</v>
+        <v>0.9945431809474592</v>
       </c>
       <c r="N10">
-        <v>0.9998751119668468</v>
+        <v>0.9945431809474592</v>
       </c>
       <c r="O10">
-        <v>0.9998556849005942</v>
+        <v>0.9936943420166595</v>
       </c>
       <c r="P10">
-        <v>0.9999444947361362</v>
+        <v>0.9975747477730691</v>
       </c>
       <c r="Q10">
-        <v>0.9999444947361362</v>
+        <v>0.9975747477730691</v>
       </c>
       <c r="R10">
-        <v>0.999979186120781</v>
+        <v>0.9990905311858742</v>
       </c>
       <c r="S10">
-        <v>0.999979186120781</v>
+        <v>0.9990905311858742</v>
       </c>
       <c r="T10">
-        <v>0.9999925998371291</v>
+        <v>0.9996766331894987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000137705743925</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="D11">
-        <v>0.999449187071345</v>
+        <v>0.9993195708470254</v>
       </c>
       <c r="E11">
-        <v>0.999449187071345</v>
+        <v>0.9993195708470254</v>
       </c>
       <c r="F11">
-        <v>1.000137705743925</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="G11">
-        <v>1.000137705743925</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="H11">
-        <v>0.9996970508790239</v>
+        <v>0.9996257640284593</v>
       </c>
       <c r="I11">
-        <v>1.000367210238212</v>
+        <v>1.000453620250091</v>
       </c>
       <c r="J11">
-        <v>1.000137705743925</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="K11">
-        <v>1.000137705743925</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="L11">
-        <v>1.000137705743925</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="M11">
-        <v>0.999793446407635</v>
+        <v>0.9997448396260902</v>
       </c>
       <c r="N11">
-        <v>0.999793446407635</v>
+        <v>0.9997448396260902</v>
       </c>
       <c r="O11">
-        <v>0.9997613145647647</v>
+        <v>0.9997051477602131</v>
       </c>
       <c r="P11">
-        <v>0.9999081995197315</v>
+        <v>0.9998865958857784</v>
       </c>
       <c r="Q11">
-        <v>0.9999081995197315</v>
+        <v>0.9998865958857784</v>
       </c>
       <c r="R11">
-        <v>0.99996557607578</v>
+        <v>0.9999574740156225</v>
       </c>
       <c r="S11">
-        <v>0.99996557607578</v>
+        <v>0.9999574740156225</v>
       </c>
       <c r="T11">
-        <v>0.9999877609033926</v>
+        <v>0.9999848800568399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984918490066717</v>
+        <v>1.000089185404426</v>
       </c>
       <c r="D12">
-        <v>1.006032599017142</v>
+        <v>0.9996432627769668</v>
       </c>
       <c r="E12">
-        <v>1.006032599017142</v>
+        <v>0.9996432627769668</v>
       </c>
       <c r="F12">
-        <v>0.9984918490066717</v>
+        <v>1.000089185404426</v>
       </c>
       <c r="G12">
-        <v>0.9984918490066717</v>
+        <v>1.000089185404426</v>
       </c>
       <c r="H12">
-        <v>1.003317929227438</v>
+        <v>0.9998037947067985</v>
       </c>
       <c r="I12">
-        <v>0.9959782667326055</v>
+        <v>1.000237825210018</v>
       </c>
       <c r="J12">
-        <v>0.9984918490066717</v>
+        <v>1.000089185404426</v>
       </c>
       <c r="K12">
-        <v>0.9984918490066717</v>
+        <v>1.000089185404426</v>
       </c>
       <c r="L12">
-        <v>0.9984918490066717</v>
+        <v>1.000089185404426</v>
       </c>
       <c r="M12">
-        <v>1.002262224011907</v>
+        <v>0.9998662240906961</v>
       </c>
       <c r="N12">
-        <v>1.002262224011907</v>
+        <v>0.9998662240906961</v>
       </c>
       <c r="O12">
-        <v>1.002614125750417</v>
+        <v>0.9998454142960637</v>
       </c>
       <c r="P12">
-        <v>1.001005432343495</v>
+        <v>0.9999405445286059</v>
       </c>
       <c r="Q12">
-        <v>1.001005432343495</v>
+        <v>0.9999405445286059</v>
       </c>
       <c r="R12">
-        <v>1.000377036509289</v>
+        <v>0.9999777047475609</v>
       </c>
       <c r="S12">
-        <v>1.000377036509289</v>
+        <v>0.9999777047475609</v>
       </c>
       <c r="T12">
-        <v>1.000134056999533</v>
+        <v>0.9999920731511768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996098550115712</v>
+        <v>1.00029645555977</v>
       </c>
       <c r="D13">
-        <v>1.001560590184448</v>
+        <v>0.9988141808029016</v>
       </c>
       <c r="E13">
-        <v>1.001560590184448</v>
+        <v>0.9988141808029016</v>
       </c>
       <c r="F13">
-        <v>0.9996098550115712</v>
+        <v>1.00029645555977</v>
       </c>
       <c r="G13">
-        <v>0.9996098550115712</v>
+        <v>1.00029645555977</v>
       </c>
       <c r="H13">
-        <v>1.000858318299684</v>
+        <v>0.9993478001782142</v>
       </c>
       <c r="I13">
-        <v>0.9989596082727059</v>
+        <v>1.000790551598715</v>
       </c>
       <c r="J13">
-        <v>0.9996098550115712</v>
+        <v>1.00029645555977</v>
       </c>
       <c r="K13">
-        <v>0.9996098550115712</v>
+        <v>1.00029645555977</v>
       </c>
       <c r="L13">
-        <v>0.9996098550115712</v>
+        <v>1.00029645555977</v>
       </c>
       <c r="M13">
-        <v>1.000585222598009</v>
+        <v>0.9995553181813358</v>
       </c>
       <c r="N13">
-        <v>1.000585222598009</v>
+        <v>0.9995553181813358</v>
       </c>
       <c r="O13">
-        <v>1.000676254498568</v>
+        <v>0.9994861455136287</v>
       </c>
       <c r="P13">
-        <v>1.000260100069197</v>
+        <v>0.9998023639741472</v>
       </c>
       <c r="Q13">
-        <v>1.000260100069197</v>
+        <v>0.9998023639741472</v>
       </c>
       <c r="R13">
-        <v>1.00009753880479</v>
+        <v>0.9999258868705529</v>
       </c>
       <c r="S13">
-        <v>1.00009753880479</v>
+        <v>0.9999258868705529</v>
       </c>
       <c r="T13">
-        <v>1.000034680298592</v>
+        <v>0.9999736498765235</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9963361977199915</v>
+        <v>1.000407562662025</v>
       </c>
       <c r="D14">
-        <v>1.014655233842102</v>
+        <v>0.9983697544368124</v>
       </c>
       <c r="E14">
-        <v>1.014655233842102</v>
+        <v>0.9983697544368124</v>
       </c>
       <c r="F14">
-        <v>0.9963361977199915</v>
+        <v>1.000407562662025</v>
       </c>
       <c r="G14">
-        <v>0.9963361977199915</v>
+        <v>1.000407562662025</v>
       </c>
       <c r="H14">
-        <v>1.00806036977633</v>
+        <v>0.9991033639556572</v>
       </c>
       <c r="I14">
-        <v>0.9902298460400668</v>
+        <v>1.001086829046472</v>
       </c>
       <c r="J14">
-        <v>0.9963361977199915</v>
+        <v>1.000407562662025</v>
       </c>
       <c r="K14">
-        <v>0.9963361977199915</v>
+        <v>1.000407562662025</v>
       </c>
       <c r="L14">
-        <v>0.9963361977199915</v>
+        <v>1.000407562662025</v>
       </c>
       <c r="M14">
-        <v>1.005495715781046</v>
+        <v>0.9993886585494185</v>
       </c>
       <c r="N14">
-        <v>1.005495715781046</v>
+        <v>0.9993886585494185</v>
       </c>
       <c r="O14">
-        <v>1.006350600446141</v>
+        <v>0.999293560351498</v>
       </c>
       <c r="P14">
-        <v>1.002442543094028</v>
+        <v>0.9997282932536206</v>
       </c>
       <c r="Q14">
-        <v>1.002442543094028</v>
+        <v>0.9997282932536206</v>
       </c>
       <c r="R14">
-        <v>1.000915956750519</v>
+        <v>0.9998981106057215</v>
       </c>
       <c r="S14">
-        <v>1.000915956750519</v>
+        <v>0.9998981106057215</v>
       </c>
       <c r="T14">
-        <v>1.000325673803079</v>
+        <v>0.9999637725708358</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9990288410802179</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="D15">
-        <v>1.003884626040816</v>
+        <v>0.9994162083970237</v>
       </c>
       <c r="E15">
-        <v>1.003884626040816</v>
+        <v>0.9994162083970237</v>
       </c>
       <c r="F15">
-        <v>0.9990288410802179</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="G15">
-        <v>0.9990288410802179</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="H15">
-        <v>1.002136542597005</v>
+        <v>0.9996789148835981</v>
       </c>
       <c r="I15">
-        <v>0.9974102468397326</v>
+        <v>1.000389194814622</v>
       </c>
       <c r="J15">
-        <v>0.9990288410802179</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="K15">
-        <v>0.9990288410802179</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="L15">
-        <v>0.9990288410802179</v>
+        <v>1.000145949058263</v>
       </c>
       <c r="M15">
-        <v>1.001456733560517</v>
+        <v>0.9997810787276432</v>
       </c>
       <c r="N15">
-        <v>1.001456733560517</v>
+        <v>0.9997810787276432</v>
       </c>
       <c r="O15">
-        <v>1.00168333657268</v>
+        <v>0.9997470241129616</v>
       </c>
       <c r="P15">
-        <v>1.000647436067084</v>
+        <v>0.999902702171183</v>
       </c>
       <c r="Q15">
-        <v>1.000647436067084</v>
+        <v>0.999902702171183</v>
       </c>
       <c r="R15">
-        <v>1.000242787320368</v>
+        <v>0.999963513892953</v>
       </c>
       <c r="S15">
-        <v>1.000242787320368</v>
+        <v>0.999963513892953</v>
       </c>
       <c r="T15">
-        <v>1.000086323119701</v>
+        <v>0.9999870275450053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002846818256537</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="D16">
-        <v>0.9886127482519158</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="E16">
-        <v>0.9886127482519158</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="F16">
-        <v>1.002846818256537</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="G16">
-        <v>1.002846818256537</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="H16">
-        <v>0.9937370132673892</v>
+        <v>0.9993801498801717</v>
       </c>
       <c r="I16">
-        <v>1.007591507864481</v>
+        <v>1.000751335312004</v>
       </c>
       <c r="J16">
-        <v>1.002846818256537</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="K16">
-        <v>1.002846818256537</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="L16">
-        <v>1.002846818256537</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="M16">
-        <v>0.9957297832542263</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="N16">
-        <v>0.9957297832542263</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="O16">
-        <v>0.9950655265919472</v>
+        <v>0.9995116327803211</v>
       </c>
       <c r="P16">
-        <v>0.9981021282549966</v>
+        <v>0.999812166625088</v>
       </c>
       <c r="Q16">
-        <v>0.9981021282549966</v>
+        <v>0.999812166625088</v>
       </c>
       <c r="R16">
-        <v>0.9992883007553817</v>
+        <v>0.9999295628224341</v>
       </c>
       <c r="S16">
-        <v>0.9992883007553817</v>
+        <v>0.9999295628224341</v>
       </c>
       <c r="T16">
-        <v>0.9997469540255661</v>
+        <v>0.9999749560803187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00232983730575</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="D17">
-        <v>0.99068066703529</v>
+        <v>0.9978402404059669</v>
       </c>
       <c r="E17">
-        <v>0.99068066703529</v>
+        <v>0.9978402404059669</v>
       </c>
       <c r="F17">
-        <v>1.00232983730575</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="G17">
-        <v>1.00232983730575</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="H17">
-        <v>0.9948743678951173</v>
+        <v>0.998812136456707</v>
       </c>
       <c r="I17">
-        <v>1.006212892961942</v>
+        <v>1.001439841989515</v>
       </c>
       <c r="J17">
-        <v>1.00232983730575</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="K17">
-        <v>1.00232983730575</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="L17">
-        <v>1.00232983730575</v>
+        <v>1.000539942342606</v>
       </c>
       <c r="M17">
-        <v>0.99650525217052</v>
+        <v>0.9991900913742864</v>
       </c>
       <c r="N17">
-        <v>0.99650525217052</v>
+        <v>0.9991900913742864</v>
       </c>
       <c r="O17">
-        <v>0.9959616240787191</v>
+        <v>0.9990641064017599</v>
       </c>
       <c r="P17">
-        <v>0.99844678054893</v>
+        <v>0.9996400416970594</v>
       </c>
       <c r="Q17">
-        <v>0.99844678054893</v>
+        <v>0.9996400416970594</v>
       </c>
       <c r="R17">
-        <v>0.999417544738135</v>
+        <v>0.999865016858446</v>
       </c>
       <c r="S17">
-        <v>0.999417544738135</v>
+        <v>0.999865016858446</v>
       </c>
       <c r="T17">
-        <v>0.9997929066349333</v>
+        <v>0.9999520076466676</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00129083388501</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="D18">
-        <v>0.9948366730188555</v>
+        <v>0.9968323183841746</v>
       </c>
       <c r="E18">
-        <v>0.9948366730188555</v>
+        <v>0.9968323183841746</v>
       </c>
       <c r="F18">
-        <v>1.00129083388501</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="G18">
-        <v>1.00129083388501</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="H18">
-        <v>0.9971601699326964</v>
+        <v>0.9982577697802155</v>
       </c>
       <c r="I18">
-        <v>1.003442220192357</v>
+        <v>1.002111785868413</v>
       </c>
       <c r="J18">
-        <v>1.00129083388501</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="K18">
-        <v>1.00129083388501</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="L18">
-        <v>1.00129083388501</v>
+        <v>1.000791924014674</v>
       </c>
       <c r="M18">
-        <v>0.9980637534519328</v>
+        <v>0.9988121211994243</v>
       </c>
       <c r="N18">
-        <v>0.9980637534519328</v>
+        <v>0.9988121211994243</v>
       </c>
       <c r="O18">
-        <v>0.9977625589455207</v>
+        <v>0.9986273373930213</v>
       </c>
       <c r="P18">
-        <v>0.9991394469296253</v>
+        <v>0.9994720554711742</v>
       </c>
       <c r="Q18">
-        <v>0.9991394469296253</v>
+        <v>0.9994720554711742</v>
       </c>
       <c r="R18">
-        <v>0.9996772936684715</v>
+        <v>0.9998020226070492</v>
       </c>
       <c r="S18">
-        <v>0.9996772936684715</v>
+        <v>0.9998020226070492</v>
       </c>
       <c r="T18">
-        <v>0.9998852607998231</v>
+        <v>0.9999296076794707</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001420465360078</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="D19">
-        <v>0.9943181235444896</v>
+        <v>0.9999579251812855</v>
       </c>
       <c r="E19">
-        <v>0.9943181235444896</v>
+        <v>0.9999579251812855</v>
       </c>
       <c r="F19">
-        <v>1.001420465360078</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="G19">
-        <v>1.001420465360078</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="H19">
-        <v>0.9968749694657593</v>
+        <v>0.9999768589922232</v>
       </c>
       <c r="I19">
-        <v>1.003787912591009</v>
+        <v>1.000028049982216</v>
       </c>
       <c r="J19">
-        <v>1.001420465360078</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="K19">
-        <v>1.001420465360078</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="L19">
-        <v>1.001420465360078</v>
+        <v>1.000010519630263</v>
       </c>
       <c r="M19">
-        <v>0.997869294452284</v>
+        <v>0.9999842224057742</v>
       </c>
       <c r="N19">
-        <v>0.997869294452284</v>
+        <v>0.9999842224057742</v>
       </c>
       <c r="O19">
-        <v>0.9975378527901091</v>
+        <v>0.9999817679345906</v>
       </c>
       <c r="P19">
-        <v>0.9990530180882154</v>
+        <v>0.9999929881472704</v>
       </c>
       <c r="Q19">
-        <v>0.9990530180882154</v>
+        <v>0.9999929881472704</v>
       </c>
       <c r="R19">
-        <v>0.9996448799061812</v>
+        <v>0.9999973710180186</v>
       </c>
       <c r="S19">
-        <v>0.9996448799061812</v>
+        <v>0.9999973710180186</v>
       </c>
       <c r="T19">
-        <v>0.9998737336135823</v>
+        <v>0.9999990655077521</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000603709342</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="D20">
-        <v>0.9999975885489688</v>
+        <v>0.9998885136232976</v>
       </c>
       <c r="E20">
-        <v>0.9999975885489688</v>
+        <v>0.9998885136232976</v>
       </c>
       <c r="F20">
-        <v>1.000000603709342</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="G20">
-        <v>1.000000603709342</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="H20">
-        <v>0.9999986738678638</v>
+        <v>0.9999386827378191</v>
       </c>
       <c r="I20">
-        <v>1.000001607901219</v>
+        <v>1.000074324540777</v>
       </c>
       <c r="J20">
-        <v>1.000000603709342</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="K20">
-        <v>1.000000603709342</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="L20">
-        <v>1.000000603709342</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="M20">
-        <v>0.9999990961291556</v>
+        <v>0.9999581931477156</v>
       </c>
       <c r="N20">
-        <v>0.9999990961291556</v>
+        <v>0.9999581931477156</v>
       </c>
       <c r="O20">
-        <v>0.9999989553753917</v>
+        <v>0.9999516896777502</v>
       </c>
       <c r="P20">
-        <v>0.9999995986558844</v>
+        <v>0.999981419655855</v>
       </c>
       <c r="Q20">
-        <v>0.9999995986558844</v>
+        <v>0.999981419655855</v>
       </c>
       <c r="R20">
-        <v>0.9999998499192488</v>
+        <v>0.9999930329099247</v>
       </c>
       <c r="S20">
-        <v>0.9999998499192488</v>
+        <v>0.9999930329099247</v>
       </c>
       <c r="T20">
-        <v>0.9999999469076797</v>
+        <v>0.999997523153049</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000012764622813</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="D21">
-        <v>0.9999489454760588</v>
+        <v>0.9998463549924856</v>
       </c>
       <c r="E21">
-        <v>0.9999489454760588</v>
+        <v>0.9998463549924856</v>
       </c>
       <c r="F21">
-        <v>1.000012764622813</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="G21">
-        <v>1.000012764622813</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="H21">
-        <v>0.9999719202898323</v>
+        <v>0.9999154953768242</v>
       </c>
       <c r="I21">
-        <v>1.000034036523309</v>
+        <v>1.000102430008383</v>
       </c>
       <c r="J21">
-        <v>1.000012764622813</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="K21">
-        <v>1.000012764622813</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="L21">
-        <v>1.000012764622813</v>
+        <v>1.00003841155262</v>
       </c>
       <c r="M21">
-        <v>0.9999808550494358</v>
+        <v>0.9999423832725527</v>
       </c>
       <c r="N21">
-        <v>0.9999808550494358</v>
+        <v>0.9999423832725527</v>
       </c>
       <c r="O21">
-        <v>0.9999778767962346</v>
+        <v>0.9999334206406432</v>
       </c>
       <c r="P21">
-        <v>0.9999914915738947</v>
+        <v>0.9999743926992416</v>
       </c>
       <c r="Q21">
-        <v>0.9999914915738947</v>
+        <v>0.9999743926992416</v>
       </c>
       <c r="R21">
-        <v>0.9999968098361243</v>
+        <v>0.9999903974125861</v>
       </c>
       <c r="S21">
-        <v>0.9999968098361243</v>
+        <v>0.9999903974125861</v>
       </c>
       <c r="T21">
-        <v>0.9999988660262731</v>
+        <v>0.9999965858392587</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000044935771085</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="D22">
-        <v>0.9998202550612528</v>
+        <v>0.9996669636589783</v>
       </c>
       <c r="E22">
-        <v>0.9998202550612528</v>
+        <v>0.9996669636589783</v>
       </c>
       <c r="F22">
-        <v>1.000044935771085</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="G22">
-        <v>1.000044935771085</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="H22">
-        <v>0.9999011414177055</v>
+        <v>0.9998168307680889</v>
       </c>
       <c r="I22">
-        <v>1.00011983004663</v>
+        <v>1.000222023771561</v>
       </c>
       <c r="J22">
-        <v>1.000044935771085</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="K22">
-        <v>1.000044935771085</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="L22">
-        <v>1.000044935771085</v>
+        <v>1.000083260274715</v>
       </c>
       <c r="M22">
-        <v>0.9999325954161689</v>
+        <v>0.9998751119668468</v>
       </c>
       <c r="N22">
-        <v>0.9999325954161689</v>
+        <v>0.9998751119668468</v>
       </c>
       <c r="O22">
-        <v>0.9999221107500144</v>
+        <v>0.9998556849005942</v>
       </c>
       <c r="P22">
-        <v>0.9999700422011409</v>
+        <v>0.9999444947361362</v>
       </c>
       <c r="Q22">
-        <v>0.9999700422011409</v>
+        <v>0.9999444947361362</v>
       </c>
       <c r="R22">
-        <v>0.9999887655936269</v>
+        <v>0.999979186120781</v>
       </c>
       <c r="S22">
-        <v>0.9999887655936269</v>
+        <v>0.999979186120781</v>
       </c>
       <c r="T22">
-        <v>0.9999960056398072</v>
+        <v>0.9999925998371291</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000137705743925</v>
+      </c>
+      <c r="D23">
+        <v>0.999449187071345</v>
+      </c>
+      <c r="E23">
+        <v>0.999449187071345</v>
+      </c>
+      <c r="F23">
+        <v>1.000137705743925</v>
+      </c>
+      <c r="G23">
+        <v>1.000137705743925</v>
+      </c>
+      <c r="H23">
+        <v>0.9996970508790239</v>
+      </c>
+      <c r="I23">
+        <v>1.000367210238212</v>
+      </c>
+      <c r="J23">
+        <v>1.000137705743925</v>
+      </c>
+      <c r="K23">
+        <v>1.000137705743925</v>
+      </c>
+      <c r="L23">
+        <v>1.000137705743925</v>
+      </c>
+      <c r="M23">
+        <v>0.999793446407635</v>
+      </c>
+      <c r="N23">
+        <v>0.999793446407635</v>
+      </c>
+      <c r="O23">
+        <v>0.9997613145647647</v>
+      </c>
+      <c r="P23">
+        <v>0.9999081995197315</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999081995197315</v>
+      </c>
+      <c r="R23">
+        <v>0.99996557607578</v>
+      </c>
+      <c r="S23">
+        <v>0.99996557607578</v>
+      </c>
+      <c r="T23">
+        <v>0.9999877609033926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="D24">
+        <v>1.006032599017142</v>
+      </c>
+      <c r="E24">
+        <v>1.006032599017142</v>
+      </c>
+      <c r="F24">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="G24">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="H24">
+        <v>1.003317929227438</v>
+      </c>
+      <c r="I24">
+        <v>0.9959782667326055</v>
+      </c>
+      <c r="J24">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="K24">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="L24">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="M24">
+        <v>1.002262224011907</v>
+      </c>
+      <c r="N24">
+        <v>1.002262224011907</v>
+      </c>
+      <c r="O24">
+        <v>1.002614125750417</v>
+      </c>
+      <c r="P24">
+        <v>1.001005432343495</v>
+      </c>
+      <c r="Q24">
+        <v>1.001005432343495</v>
+      </c>
+      <c r="R24">
+        <v>1.000377036509289</v>
+      </c>
+      <c r="S24">
+        <v>1.000377036509289</v>
+      </c>
+      <c r="T24">
+        <v>1.000134056999533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="D25">
+        <v>1.001560590184448</v>
+      </c>
+      <c r="E25">
+        <v>1.001560590184448</v>
+      </c>
+      <c r="F25">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="G25">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="H25">
+        <v>1.000858318299684</v>
+      </c>
+      <c r="I25">
+        <v>0.9989596082727059</v>
+      </c>
+      <c r="J25">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="K25">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="L25">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="M25">
+        <v>1.000585222598009</v>
+      </c>
+      <c r="N25">
+        <v>1.000585222598009</v>
+      </c>
+      <c r="O25">
+        <v>1.000676254498568</v>
+      </c>
+      <c r="P25">
+        <v>1.000260100069197</v>
+      </c>
+      <c r="Q25">
+        <v>1.000260100069197</v>
+      </c>
+      <c r="R25">
+        <v>1.00009753880479</v>
+      </c>
+      <c r="S25">
+        <v>1.00009753880479</v>
+      </c>
+      <c r="T25">
+        <v>1.000034680298592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="D26">
+        <v>1.014655233842102</v>
+      </c>
+      <c r="E26">
+        <v>1.014655233842102</v>
+      </c>
+      <c r="F26">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="G26">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="H26">
+        <v>1.00806036977633</v>
+      </c>
+      <c r="I26">
+        <v>0.9902298460400668</v>
+      </c>
+      <c r="J26">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="K26">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="L26">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="M26">
+        <v>1.005495715781046</v>
+      </c>
+      <c r="N26">
+        <v>1.005495715781046</v>
+      </c>
+      <c r="O26">
+        <v>1.006350600446141</v>
+      </c>
+      <c r="P26">
+        <v>1.002442543094028</v>
+      </c>
+      <c r="Q26">
+        <v>1.002442543094028</v>
+      </c>
+      <c r="R26">
+        <v>1.000915956750519</v>
+      </c>
+      <c r="S26">
+        <v>1.000915956750519</v>
+      </c>
+      <c r="T26">
+        <v>1.000325673803079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="D27">
+        <v>1.003884626040816</v>
+      </c>
+      <c r="E27">
+        <v>1.003884626040816</v>
+      </c>
+      <c r="F27">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="G27">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="H27">
+        <v>1.002136542597005</v>
+      </c>
+      <c r="I27">
+        <v>0.9974102468397326</v>
+      </c>
+      <c r="J27">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="K27">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="L27">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="M27">
+        <v>1.001456733560517</v>
+      </c>
+      <c r="N27">
+        <v>1.001456733560517</v>
+      </c>
+      <c r="O27">
+        <v>1.00168333657268</v>
+      </c>
+      <c r="P27">
+        <v>1.000647436067084</v>
+      </c>
+      <c r="Q27">
+        <v>1.000647436067084</v>
+      </c>
+      <c r="R27">
+        <v>1.000242787320368</v>
+      </c>
+      <c r="S27">
+        <v>1.000242787320368</v>
+      </c>
+      <c r="T27">
+        <v>1.000086323119701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.002846818256537</v>
+      </c>
+      <c r="D28">
+        <v>0.9886127482519158</v>
+      </c>
+      <c r="E28">
+        <v>0.9886127482519158</v>
+      </c>
+      <c r="F28">
+        <v>1.002846818256537</v>
+      </c>
+      <c r="G28">
+        <v>1.002846818256537</v>
+      </c>
+      <c r="H28">
+        <v>0.9937370132673892</v>
+      </c>
+      <c r="I28">
+        <v>1.007591507864481</v>
+      </c>
+      <c r="J28">
+        <v>1.002846818256537</v>
+      </c>
+      <c r="K28">
+        <v>1.002846818256537</v>
+      </c>
+      <c r="L28">
+        <v>1.002846818256537</v>
+      </c>
+      <c r="M28">
+        <v>0.9957297832542263</v>
+      </c>
+      <c r="N28">
+        <v>0.9957297832542263</v>
+      </c>
+      <c r="O28">
+        <v>0.9950655265919472</v>
+      </c>
+      <c r="P28">
+        <v>0.9981021282549966</v>
+      </c>
+      <c r="Q28">
+        <v>0.9981021282549966</v>
+      </c>
+      <c r="R28">
+        <v>0.9992883007553817</v>
+      </c>
+      <c r="S28">
+        <v>0.9992883007553817</v>
+      </c>
+      <c r="T28">
+        <v>0.9997469540255661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.00232983730575</v>
+      </c>
+      <c r="D29">
+        <v>0.99068066703529</v>
+      </c>
+      <c r="E29">
+        <v>0.99068066703529</v>
+      </c>
+      <c r="F29">
+        <v>1.00232983730575</v>
+      </c>
+      <c r="G29">
+        <v>1.00232983730575</v>
+      </c>
+      <c r="H29">
+        <v>0.9948743678951173</v>
+      </c>
+      <c r="I29">
+        <v>1.006212892961942</v>
+      </c>
+      <c r="J29">
+        <v>1.00232983730575</v>
+      </c>
+      <c r="K29">
+        <v>1.00232983730575</v>
+      </c>
+      <c r="L29">
+        <v>1.00232983730575</v>
+      </c>
+      <c r="M29">
+        <v>0.99650525217052</v>
+      </c>
+      <c r="N29">
+        <v>0.99650525217052</v>
+      </c>
+      <c r="O29">
+        <v>0.9959616240787191</v>
+      </c>
+      <c r="P29">
+        <v>0.99844678054893</v>
+      </c>
+      <c r="Q29">
+        <v>0.99844678054893</v>
+      </c>
+      <c r="R29">
+        <v>0.999417544738135</v>
+      </c>
+      <c r="S29">
+        <v>0.999417544738135</v>
+      </c>
+      <c r="T29">
+        <v>0.9997929066349333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.00129083388501</v>
+      </c>
+      <c r="D30">
+        <v>0.9948366730188555</v>
+      </c>
+      <c r="E30">
+        <v>0.9948366730188555</v>
+      </c>
+      <c r="F30">
+        <v>1.00129083388501</v>
+      </c>
+      <c r="G30">
+        <v>1.00129083388501</v>
+      </c>
+      <c r="H30">
+        <v>0.9971601699326964</v>
+      </c>
+      <c r="I30">
+        <v>1.003442220192357</v>
+      </c>
+      <c r="J30">
+        <v>1.00129083388501</v>
+      </c>
+      <c r="K30">
+        <v>1.00129083388501</v>
+      </c>
+      <c r="L30">
+        <v>1.00129083388501</v>
+      </c>
+      <c r="M30">
+        <v>0.9980637534519328</v>
+      </c>
+      <c r="N30">
+        <v>0.9980637534519328</v>
+      </c>
+      <c r="O30">
+        <v>0.9977625589455207</v>
+      </c>
+      <c r="P30">
+        <v>0.9991394469296253</v>
+      </c>
+      <c r="Q30">
+        <v>0.9991394469296253</v>
+      </c>
+      <c r="R30">
+        <v>0.9996772936684715</v>
+      </c>
+      <c r="S30">
+        <v>0.9996772936684715</v>
+      </c>
+      <c r="T30">
+        <v>0.9998852607998231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="D31">
+        <v>0.9943181235444896</v>
+      </c>
+      <c r="E31">
+        <v>0.9943181235444896</v>
+      </c>
+      <c r="F31">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="G31">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="H31">
+        <v>0.9968749694657593</v>
+      </c>
+      <c r="I31">
+        <v>1.003787912591009</v>
+      </c>
+      <c r="J31">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="K31">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="L31">
+        <v>1.001420465360078</v>
+      </c>
+      <c r="M31">
+        <v>0.997869294452284</v>
+      </c>
+      <c r="N31">
+        <v>0.997869294452284</v>
+      </c>
+      <c r="O31">
+        <v>0.9975378527901091</v>
+      </c>
+      <c r="P31">
+        <v>0.9990530180882154</v>
+      </c>
+      <c r="Q31">
+        <v>0.9990530180882154</v>
+      </c>
+      <c r="R31">
+        <v>0.9996448799061812</v>
+      </c>
+      <c r="S31">
+        <v>0.9996448799061812</v>
+      </c>
+      <c r="T31">
+        <v>0.9998737336135823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.003381160273972</v>
+      </c>
+      <c r="D32">
+        <v>0.986475385068493</v>
+      </c>
+      <c r="E32">
+        <v>0.986475385068493</v>
+      </c>
+      <c r="F32">
+        <v>1.003381160273972</v>
+      </c>
+      <c r="G32">
+        <v>1.003381160273972</v>
+      </c>
+      <c r="H32">
+        <v>0.9925614642465752</v>
+      </c>
+      <c r="I32">
+        <v>1.009016419452055</v>
+      </c>
+      <c r="J32">
+        <v>1.003381160273972</v>
+      </c>
+      <c r="K32">
+        <v>1.003381160273972</v>
+      </c>
+      <c r="L32">
+        <v>1.003381160273972</v>
+      </c>
+      <c r="M32">
+        <v>0.9949282726712327</v>
+      </c>
+      <c r="N32">
+        <v>0.9949282726712327</v>
+      </c>
+      <c r="O32">
+        <v>0.9941393365296802</v>
+      </c>
+      <c r="P32">
+        <v>0.997745901872146</v>
+      </c>
+      <c r="Q32">
+        <v>0.997745901872146</v>
+      </c>
+      <c r="R32">
+        <v>0.9991547164726026</v>
+      </c>
+      <c r="S32">
+        <v>0.9991547164726026</v>
+      </c>
+      <c r="T32">
+        <v>0.99969945826484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.002032908421053</v>
+      </c>
+      <c r="D33">
+        <v>0.9918683484210525</v>
+      </c>
+      <c r="E33">
+        <v>0.9918683484210525</v>
+      </c>
+      <c r="F33">
+        <v>1.002032908421053</v>
+      </c>
+      <c r="G33">
+        <v>1.002032908421053</v>
+      </c>
+      <c r="H33">
+        <v>0.995527595263158</v>
+      </c>
+      <c r="I33">
+        <v>1.005421094736842</v>
+      </c>
+      <c r="J33">
+        <v>1.002032908421053</v>
+      </c>
+      <c r="K33">
+        <v>1.002032908421053</v>
+      </c>
+      <c r="L33">
+        <v>1.002032908421053</v>
+      </c>
+      <c r="M33">
+        <v>0.9969506284210525</v>
+      </c>
+      <c r="N33">
+        <v>0.9969506284210525</v>
+      </c>
+      <c r="O33">
+        <v>0.9964762840350877</v>
+      </c>
+      <c r="P33">
+        <v>0.998644721754386</v>
+      </c>
+      <c r="Q33">
+        <v>0.998644721754386</v>
+      </c>
+      <c r="R33">
+        <v>0.9994917684210527</v>
+      </c>
+      <c r="S33">
+        <v>0.9994917684210527</v>
+      </c>
+      <c r="T33">
+        <v>0.9998192939473686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="D34">
+        <v>0.9840411878947369</v>
+      </c>
+      <c r="E34">
+        <v>0.9840411878947369</v>
+      </c>
+      <c r="F34">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="G34">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="H34">
+        <v>0.9912226531578948</v>
+      </c>
+      <c r="I34">
+        <v>1.010639205263158</v>
+      </c>
+      <c r="J34">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="K34">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="L34">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="M34">
+        <v>0.9940154465789472</v>
+      </c>
+      <c r="N34">
+        <v>0.9940154465789472</v>
+      </c>
+      <c r="O34">
+        <v>0.9930845154385964</v>
+      </c>
+      <c r="P34">
+        <v>0.9973401994736841</v>
+      </c>
+      <c r="Q34">
+        <v>0.9973401994736841</v>
+      </c>
+      <c r="R34">
+        <v>0.9990025759210526</v>
+      </c>
+      <c r="S34">
+        <v>0.9990025759210526</v>
+      </c>
+      <c r="T34">
+        <v>0.9996453603508771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.005122876828571</v>
+      </c>
+      <c r="D35">
+        <v>0.9795085804202431</v>
+      </c>
+      <c r="E35">
+        <v>0.9795085804202431</v>
+      </c>
+      <c r="F35">
+        <v>1.005122876828571</v>
+      </c>
+      <c r="G35">
+        <v>1.005122876828571</v>
+      </c>
+      <c r="H35">
+        <v>0.9887297173068447</v>
+      </c>
+      <c r="I35">
+        <v>1.013660936081432</v>
+      </c>
+      <c r="J35">
+        <v>1.005122876828571</v>
+      </c>
+      <c r="K35">
+        <v>1.005122876828571</v>
+      </c>
+      <c r="L35">
+        <v>1.005122876828571</v>
+      </c>
+      <c r="M35">
+        <v>0.9923157286244071</v>
+      </c>
+      <c r="N35">
+        <v>0.9923157286244071</v>
+      </c>
+      <c r="O35">
+        <v>0.991120391518553</v>
+      </c>
+      <c r="P35">
+        <v>0.9965847780257949</v>
+      </c>
+      <c r="Q35">
+        <v>0.9965847780257949</v>
+      </c>
+      <c r="R35">
+        <v>0.9987193027264889</v>
+      </c>
+      <c r="S35">
+        <v>0.9987193027264889</v>
+      </c>
+      <c r="T35">
+        <v>0.9995446440490388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="D36">
+        <v>0.9999975885489688</v>
+      </c>
+      <c r="E36">
+        <v>0.9999975885489688</v>
+      </c>
+      <c r="F36">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="G36">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="H36">
+        <v>0.9999986738678638</v>
+      </c>
+      <c r="I36">
+        <v>1.000001607901219</v>
+      </c>
+      <c r="J36">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="K36">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="L36">
+        <v>1.000000603709342</v>
+      </c>
+      <c r="M36">
+        <v>0.9999990961291556</v>
+      </c>
+      <c r="N36">
+        <v>0.9999990961291556</v>
+      </c>
+      <c r="O36">
+        <v>0.9999989553753917</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995986558844</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999995986558844</v>
+      </c>
+      <c r="R36">
+        <v>0.9999998499192488</v>
+      </c>
+      <c r="S36">
+        <v>0.9999998499192488</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999469076797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="D37">
+        <v>0.9999489454760588</v>
+      </c>
+      <c r="E37">
+        <v>0.9999489454760588</v>
+      </c>
+      <c r="F37">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="G37">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="H37">
+        <v>0.9999719202898323</v>
+      </c>
+      <c r="I37">
+        <v>1.000034036523309</v>
+      </c>
+      <c r="J37">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="K37">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="L37">
+        <v>1.000012764622813</v>
+      </c>
+      <c r="M37">
+        <v>0.9999808550494358</v>
+      </c>
+      <c r="N37">
+        <v>0.9999808550494358</v>
+      </c>
+      <c r="O37">
+        <v>0.9999778767962346</v>
+      </c>
+      <c r="P37">
+        <v>0.9999914915738947</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999914915738947</v>
+      </c>
+      <c r="R37">
+        <v>0.9999968098361243</v>
+      </c>
+      <c r="S37">
+        <v>0.9999968098361243</v>
+      </c>
+      <c r="T37">
+        <v>0.9999988660262731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="D38">
+        <v>0.9998202550612528</v>
+      </c>
+      <c r="E38">
+        <v>0.9998202550612528</v>
+      </c>
+      <c r="F38">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="G38">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="H38">
+        <v>0.9999011414177055</v>
+      </c>
+      <c r="I38">
+        <v>1.00011983004663</v>
+      </c>
+      <c r="J38">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="K38">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="L38">
+        <v>1.000044935771085</v>
+      </c>
+      <c r="M38">
+        <v>0.9999325954161689</v>
+      </c>
+      <c r="N38">
+        <v>0.9999325954161689</v>
+      </c>
+      <c r="O38">
+        <v>0.9999221107500144</v>
+      </c>
+      <c r="P38">
+        <v>0.9999700422011409</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999700422011409</v>
+      </c>
+      <c r="R38">
+        <v>0.9999887655936269</v>
+      </c>
+      <c r="S38">
+        <v>0.9999887655936269</v>
+      </c>
+      <c r="T38">
+        <v>0.9999960056398072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.00010527554848</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9995789131743381</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9995789131743381</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.00010527554848</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.00010527554848</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9997684049625631</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000280724771963</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.00010527554848</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00010527554848</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00010527554848</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9998420943614088</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9998420943614088</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9998175312284602</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999298214237657</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999298214237657</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999736849549442</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999736849549442</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999906449257171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001395500756266</v>
+      </c>
+      <c r="D40">
+        <v>0.9944180009954315</v>
+      </c>
+      <c r="E40">
+        <v>0.9944180009954315</v>
+      </c>
+      <c r="F40">
+        <v>1.001395500756266</v>
+      </c>
+      <c r="G40">
+        <v>1.001395500756266</v>
+      </c>
+      <c r="H40">
+        <v>0.9969299005166479</v>
+      </c>
+      <c r="I40">
+        <v>1.00372133324045</v>
+      </c>
+      <c r="J40">
+        <v>1.001395500756266</v>
+      </c>
+      <c r="K40">
+        <v>1.001395500756266</v>
+      </c>
+      <c r="L40">
+        <v>1.001395500756266</v>
+      </c>
+      <c r="M40">
+        <v>0.9979067508758486</v>
+      </c>
+      <c r="N40">
+        <v>0.9979067508758486</v>
+      </c>
+      <c r="O40">
+        <v>0.9975811340894483</v>
+      </c>
+      <c r="P40">
+        <v>0.9990696675026541</v>
+      </c>
+      <c r="Q40">
+        <v>0.9990696675026541</v>
+      </c>
+      <c r="R40">
+        <v>0.999651125816057</v>
+      </c>
+      <c r="S40">
+        <v>0.999651125816057</v>
+      </c>
+      <c r="T40">
+        <v>0.999875956170221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999007510466685</v>
+      </c>
+      <c r="D41">
+        <v>1.000397002045496</v>
+      </c>
+      <c r="E41">
+        <v>1.000397002045496</v>
+      </c>
+      <c r="F41">
+        <v>0.9999007510466685</v>
+      </c>
+      <c r="G41">
+        <v>0.9999007510466685</v>
+      </c>
+      <c r="H41">
+        <v>1.000218352237951</v>
+      </c>
+      <c r="I41">
+        <v>0.9997353324956331</v>
+      </c>
+      <c r="J41">
+        <v>0.9999007510466685</v>
+      </c>
+      <c r="K41">
+        <v>0.9999007510466685</v>
+      </c>
+      <c r="L41">
+        <v>0.9999007510466685</v>
+      </c>
+      <c r="M41">
+        <v>1.000148876546082</v>
+      </c>
+      <c r="N41">
+        <v>1.000148876546082</v>
+      </c>
+      <c r="O41">
+        <v>1.000172035110039</v>
+      </c>
+      <c r="P41">
+        <v>1.000066168046278</v>
+      </c>
+      <c r="Q41">
+        <v>1.000066168046278</v>
+      </c>
+      <c r="R41">
+        <v>1.000024813796375</v>
+      </c>
+      <c r="S41">
+        <v>1.000024813796375</v>
+      </c>
+      <c r="T41">
+        <v>1.000008823319848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002407094679887</v>
+      </c>
+      <c r="D42">
+        <v>0.9903716302897685</v>
+      </c>
+      <c r="E42">
+        <v>0.9903716302897685</v>
+      </c>
+      <c r="F42">
+        <v>1.002407094679887</v>
+      </c>
+      <c r="G42">
+        <v>1.002407094679887</v>
+      </c>
+      <c r="H42">
+        <v>0.9947044007802469</v>
+      </c>
+      <c r="I42">
+        <v>1.006418913840346</v>
+      </c>
+      <c r="J42">
+        <v>1.002407094679887</v>
+      </c>
+      <c r="K42">
+        <v>1.002407094679887</v>
+      </c>
+      <c r="L42">
+        <v>1.002407094679887</v>
+      </c>
+      <c r="M42">
+        <v>0.9963893624848276</v>
+      </c>
+      <c r="N42">
+        <v>0.9963893624848276</v>
+      </c>
+      <c r="O42">
+        <v>0.9958277085833007</v>
+      </c>
+      <c r="P42">
+        <v>0.9983952732165139</v>
+      </c>
+      <c r="Q42">
+        <v>0.9983952732165139</v>
+      </c>
+      <c r="R42">
+        <v>0.9993982285823571</v>
+      </c>
+      <c r="S42">
+        <v>0.9993982285823571</v>
+      </c>
+      <c r="T42">
+        <v>0.9997860381583369</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000145949058263</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="D3">
-        <v>0.9994162083970237</v>
+        <v>0.9998885136232976</v>
       </c>
       <c r="E3">
-        <v>1.000145949058263</v>
+        <v>0.9998885136232976</v>
       </c>
       <c r="F3">
-        <v>1.000145949058263</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="G3">
-        <v>1.000389194814622</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="H3">
-        <v>0.9996789148835981</v>
+        <v>0.9999386827378191</v>
       </c>
       <c r="I3">
-        <v>1.000145949058263</v>
+        <v>1.000074324540777</v>
       </c>
       <c r="J3">
-        <v>0.9994162083970237</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="K3">
-        <v>1.000145949058263</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="L3">
-        <v>1.000145949058263</v>
+        <v>1.000027872672134</v>
       </c>
       <c r="M3">
-        <v>0.9997810787276432</v>
+        <v>0.9999581931477156</v>
       </c>
       <c r="N3">
-        <v>0.9997810787276432</v>
+        <v>0.9999581931477156</v>
       </c>
       <c r="O3">
-        <v>0.9997470241129616</v>
+        <v>0.9999516896777502</v>
       </c>
       <c r="P3">
-        <v>0.999902702171183</v>
+        <v>0.999981419655855</v>
       </c>
       <c r="Q3">
-        <v>0.999902702171183</v>
+        <v>0.999981419655855</v>
       </c>
       <c r="R3">
-        <v>0.999963513892953</v>
+        <v>0.9999930329099247</v>
       </c>
       <c r="S3">
-        <v>0.999963513892953</v>
+        <v>0.9999930329099247</v>
       </c>
       <c r="T3">
-        <v>0.9999870275450053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.999997523153049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000281751414472</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="D4">
-        <v>0.9988729970463192</v>
+        <v>0.9944180009954315</v>
       </c>
       <c r="E4">
-        <v>1.000281751414472</v>
+        <v>0.9944180009954315</v>
       </c>
       <c r="F4">
-        <v>1.000281751414472</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="G4">
-        <v>1.000751335312004</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="H4">
-        <v>0.9993801498801717</v>
+        <v>0.9969299005166479</v>
       </c>
       <c r="I4">
-        <v>1.000281751414472</v>
+        <v>1.00372133324045</v>
       </c>
       <c r="J4">
-        <v>0.9988729970463192</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="K4">
-        <v>1.000281751414472</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="L4">
-        <v>1.000281751414472</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="M4">
-        <v>0.9995773742303957</v>
+        <v>0.9979067508758486</v>
       </c>
       <c r="N4">
-        <v>0.9995773742303957</v>
+        <v>0.9979067508758486</v>
       </c>
       <c r="O4">
-        <v>0.9995116327803211</v>
+        <v>0.9975811340894483</v>
       </c>
       <c r="P4">
-        <v>0.999812166625088</v>
+        <v>0.9990696675026541</v>
       </c>
       <c r="Q4">
-        <v>0.999812166625088</v>
+        <v>0.9990696675026541</v>
       </c>
       <c r="R4">
-        <v>0.9999295628224341</v>
+        <v>0.999651125816057</v>
       </c>
       <c r="S4">
-        <v>0.9999295628224341</v>
+        <v>0.999651125816057</v>
       </c>
       <c r="T4">
-        <v>0.9999749560803187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.999875956170221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000539942342606</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="D5">
-        <v>0.9978402404059669</v>
+        <v>0.9937565660806944</v>
       </c>
       <c r="E5">
-        <v>1.000539942342606</v>
+        <v>0.9937565660806944</v>
       </c>
       <c r="F5">
-        <v>1.000539942342606</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="G5">
-        <v>1.001439841989515</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="H5">
-        <v>0.998812136456707</v>
+        <v>0.9965661109510059</v>
       </c>
       <c r="I5">
-        <v>1.000539942342606</v>
+        <v>1.004162288515847</v>
       </c>
       <c r="J5">
-        <v>0.9978402404059669</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="K5">
-        <v>1.000539942342606</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="L5">
-        <v>1.000539942342606</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="M5">
-        <v>0.9991900913742864</v>
+        <v>0.9976587136095102</v>
       </c>
       <c r="N5">
-        <v>0.9991900913742864</v>
+        <v>0.9976587136095102</v>
       </c>
       <c r="O5">
-        <v>0.9990641064017599</v>
+        <v>0.9972945127233421</v>
       </c>
       <c r="P5">
-        <v>0.9996400416970594</v>
+        <v>0.9989594294524489</v>
       </c>
       <c r="Q5">
-        <v>0.9996400416970594</v>
+        <v>0.9989594294524489</v>
       </c>
       <c r="R5">
-        <v>0.999865016858446</v>
+        <v>0.9996097873739181</v>
       </c>
       <c r="S5">
-        <v>0.999865016858446</v>
+        <v>0.9996097873739181</v>
       </c>
       <c r="T5">
-        <v>0.9999520076466676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9998612581604208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000791924014674</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="D6">
-        <v>0.9968323183841746</v>
+        <v>0.9795085804202431</v>
       </c>
       <c r="E6">
-        <v>1.000791924014674</v>
+        <v>0.9795085804202431</v>
       </c>
       <c r="F6">
-        <v>1.000791924014674</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="G6">
-        <v>1.002111785868413</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="H6">
-        <v>0.9982577697802155</v>
+        <v>0.9887297173068447</v>
       </c>
       <c r="I6">
-        <v>1.000791924014674</v>
+        <v>1.013660936081432</v>
       </c>
       <c r="J6">
-        <v>0.9968323183841746</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="K6">
-        <v>1.000791924014674</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="L6">
-        <v>1.000791924014674</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="M6">
-        <v>0.9988121211994243</v>
+        <v>0.9923157286244071</v>
       </c>
       <c r="N6">
-        <v>0.9988121211994243</v>
+        <v>0.9923157286244071</v>
       </c>
       <c r="O6">
-        <v>0.9986273373930213</v>
+        <v>0.991120391518553</v>
       </c>
       <c r="P6">
-        <v>0.9994720554711742</v>
+        <v>0.9965847780257949</v>
       </c>
       <c r="Q6">
-        <v>0.9994720554711742</v>
+        <v>0.9965847780257949</v>
       </c>
       <c r="R6">
-        <v>0.9998020226070492</v>
+        <v>0.9987193027264889</v>
       </c>
       <c r="S6">
-        <v>0.9998020226070492</v>
+        <v>0.9987193027264889</v>
       </c>
       <c r="T6">
-        <v>0.9999296076794707</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9995446440490388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000010519630263</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="D7">
-        <v>0.9999579251812855</v>
+        <v>0.9993195708470254</v>
       </c>
       <c r="E7">
-        <v>1.000010519630263</v>
+        <v>0.9993195708470254</v>
       </c>
       <c r="F7">
-        <v>1.000010519630263</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="G7">
-        <v>1.000028049982216</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="H7">
-        <v>0.9999768589922232</v>
+        <v>0.9996257640284593</v>
       </c>
       <c r="I7">
-        <v>1.000010519630263</v>
+        <v>1.000453620250091</v>
       </c>
       <c r="J7">
-        <v>0.9999579251812855</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="K7">
-        <v>1.000010519630263</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="L7">
-        <v>1.000010519630263</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="M7">
-        <v>0.9999842224057742</v>
+        <v>0.9997448396260902</v>
       </c>
       <c r="N7">
-        <v>0.9999842224057742</v>
+        <v>0.9997448396260902</v>
       </c>
       <c r="O7">
-        <v>0.9999817679345906</v>
+        <v>0.9997051477602131</v>
       </c>
       <c r="P7">
-        <v>0.9999929881472704</v>
+        <v>0.9998865958857784</v>
       </c>
       <c r="Q7">
-        <v>0.9999929881472704</v>
+        <v>0.9998865958857784</v>
       </c>
       <c r="R7">
-        <v>0.9999973710180186</v>
+        <v>0.9999574740156225</v>
       </c>
       <c r="S7">
-        <v>0.9999973710180186</v>
+        <v>0.9999574740156225</v>
       </c>
       <c r="T7">
-        <v>0.9999990655077523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999848800568399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000027872672134</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="D8">
-        <v>0.9998885136232976</v>
+        <v>0.9999489454760588</v>
       </c>
       <c r="E8">
-        <v>1.000027872672134</v>
+        <v>0.9999489454760588</v>
       </c>
       <c r="F8">
-        <v>1.000027872672134</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="G8">
-        <v>1.000074324540777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="H8">
-        <v>0.9999386827378189</v>
+        <v>0.9999719202898323</v>
       </c>
       <c r="I8">
-        <v>1.000027872672134</v>
+        <v>1.000034036523309</v>
       </c>
       <c r="J8">
-        <v>0.9998885136232976</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="K8">
-        <v>1.000027872672134</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="L8">
-        <v>1.000027872672134</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="M8">
-        <v>0.9999581931477156</v>
+        <v>0.9999808550494358</v>
       </c>
       <c r="N8">
-        <v>0.9999581931477156</v>
+        <v>0.9999808550494358</v>
       </c>
       <c r="O8">
-        <v>0.9999516896777502</v>
+        <v>0.9999778767962346</v>
       </c>
       <c r="P8">
-        <v>0.999981419655855</v>
+        <v>0.9999914915738947</v>
       </c>
       <c r="Q8">
-        <v>0.999981419655855</v>
+        <v>0.9999914915738947</v>
       </c>
       <c r="R8">
-        <v>0.9999930329099247</v>
+        <v>0.9999968098361243</v>
       </c>
       <c r="S8">
-        <v>0.9999930329099247</v>
+        <v>0.9999968098361243</v>
       </c>
       <c r="T8">
-        <v>0.999997523153049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999988660262731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00003841155262</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="D9">
-        <v>0.9998463549924856</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="E9">
-        <v>1.00003841155262</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="F9">
-        <v>1.00003841155262</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="G9">
-        <v>1.000102430008383</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="H9">
-        <v>0.9999154953768242</v>
+        <v>0.9993801498801717</v>
       </c>
       <c r="I9">
-        <v>1.00003841155262</v>
+        <v>1.000751335312004</v>
       </c>
       <c r="J9">
-        <v>0.9998463549924856</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="K9">
-        <v>1.00003841155262</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="L9">
-        <v>1.00003841155262</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="M9">
-        <v>0.9999423832725528</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="N9">
-        <v>0.9999423832725528</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="O9">
-        <v>0.9999334206406433</v>
+        <v>0.9995116327803211</v>
       </c>
       <c r="P9">
-        <v>0.9999743926992419</v>
+        <v>0.999812166625088</v>
       </c>
       <c r="Q9">
-        <v>0.9999743926992419</v>
+        <v>0.999812166625088</v>
       </c>
       <c r="R9">
-        <v>0.9999903974125864</v>
+        <v>0.9999295628224341</v>
       </c>
       <c r="S9">
-        <v>0.9999903974125864</v>
+        <v>0.9999295628224341</v>
       </c>
       <c r="T9">
-        <v>0.9999965858392589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999749560803187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000083260274715</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="D10">
-        <v>0.9996669636589783</v>
+        <v>0.9792037760727862</v>
       </c>
       <c r="E10">
-        <v>1.000083260274715</v>
+        <v>0.9792037760727862</v>
       </c>
       <c r="F10">
-        <v>1.000083260274715</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="G10">
-        <v>1.000222023771561</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="H10">
-        <v>0.9998168307680889</v>
+        <v>0.9885620742269422</v>
       </c>
       <c r="I10">
-        <v>1.000083260274715</v>
+        <v>1.013864138936496</v>
       </c>
       <c r="J10">
-        <v>0.9996669636589783</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="K10">
-        <v>1.000083260274715</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="L10">
-        <v>1.000083260274715</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="M10">
-        <v>0.9998751119668468</v>
+        <v>0.9922014270252817</v>
       </c>
       <c r="N10">
-        <v>0.9998751119668468</v>
+        <v>0.9922014270252817</v>
       </c>
       <c r="O10">
-        <v>0.9998556849005942</v>
+        <v>0.9909883094258353</v>
       </c>
       <c r="P10">
-        <v>0.9999444947361362</v>
+        <v>0.99653397734278</v>
       </c>
       <c r="Q10">
-        <v>0.9999444947361362</v>
+        <v>0.99653397734278</v>
       </c>
       <c r="R10">
-        <v>0.999979186120781</v>
+        <v>0.9987002525015294</v>
       </c>
       <c r="S10">
-        <v>0.999979186120781</v>
+        <v>0.9987002525015294</v>
       </c>
       <c r="T10">
-        <v>0.9999925998371291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9995378705282593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000137705743925</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="D11">
-        <v>0.999449187071345</v>
+        <v>0.9940481065391809</v>
       </c>
       <c r="E11">
-        <v>1.000137705743925</v>
+        <v>0.9940481065391809</v>
       </c>
       <c r="F11">
-        <v>1.000137705743925</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="G11">
-        <v>1.000367210238212</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="H11">
-        <v>0.9996970508790239</v>
+        <v>0.9967264592264006</v>
       </c>
       <c r="I11">
-        <v>1.000137705743925</v>
+        <v>1.003967930261245</v>
       </c>
       <c r="J11">
-        <v>0.999449187071345</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="K11">
-        <v>1.000137705743925</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="L11">
-        <v>1.000137705743925</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="M11">
-        <v>0.9997934464076348</v>
+        <v>0.9977680407465074</v>
       </c>
       <c r="N11">
-        <v>0.9997934464076348</v>
+        <v>0.9977680407465074</v>
       </c>
       <c r="O11">
-        <v>0.9997613145647645</v>
+        <v>0.9974208469064717</v>
       </c>
       <c r="P11">
-        <v>0.9999081995197314</v>
+        <v>0.9990080188156162</v>
       </c>
       <c r="Q11">
-        <v>0.9999081995197314</v>
+        <v>0.9990080188156162</v>
       </c>
       <c r="R11">
-        <v>0.9999655760757797</v>
+        <v>0.9996280078501707</v>
       </c>
       <c r="S11">
-        <v>0.9999655760757797</v>
+        <v>0.9996280078501707</v>
       </c>
       <c r="T11">
-        <v>0.9999877609033924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9998677368147213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984918490066719</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="D12">
-        <v>1.006032599017142</v>
+        <v>0.9936086699684205</v>
       </c>
       <c r="E12">
-        <v>0.9984918490066719</v>
+        <v>0.9936086699684205</v>
       </c>
       <c r="F12">
-        <v>0.9984918490066719</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="G12">
-        <v>0.9959782667326055</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="H12">
-        <v>1.003317929227438</v>
+        <v>0.9964847663999996</v>
       </c>
       <c r="I12">
-        <v>0.9984918490066719</v>
+        <v>1.004260885452627</v>
       </c>
       <c r="J12">
-        <v>1.006032599017142</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="K12">
-        <v>0.9984918490066719</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="L12">
-        <v>0.9984918490066719</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="M12">
-        <v>1.002262224011907</v>
+        <v>0.9976032528578935</v>
       </c>
       <c r="N12">
-        <v>1.002262224011907</v>
+        <v>0.9976032528578935</v>
       </c>
       <c r="O12">
-        <v>1.002614125750417</v>
+        <v>0.9972304240385955</v>
       </c>
       <c r="P12">
-        <v>1.001005432343495</v>
+        <v>0.9989347804877179</v>
       </c>
       <c r="Q12">
-        <v>1.001005432343495</v>
+        <v>0.9989347804877179</v>
       </c>
       <c r="R12">
-        <v>1.000377036509289</v>
+        <v>0.9996005443026301</v>
       </c>
       <c r="S12">
-        <v>1.000377036509289</v>
+        <v>0.9996005443026301</v>
       </c>
       <c r="T12">
-        <v>1.000134056999533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9998579715105246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996098550115712</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="D13">
-        <v>1.001560590184448</v>
+        <v>1.004090074216861</v>
       </c>
       <c r="E13">
-        <v>0.9996098550115712</v>
+        <v>1.004090074216861</v>
       </c>
       <c r="F13">
-        <v>0.9996098550115712</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="G13">
-        <v>0.9989596082727059</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="H13">
-        <v>1.000858318299684</v>
+        <v>1.002249538610089</v>
       </c>
       <c r="I13">
-        <v>0.9996098550115712</v>
+        <v>0.9972732848982016</v>
       </c>
       <c r="J13">
-        <v>1.001560590184448</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="K13">
-        <v>0.9996098550115712</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="L13">
-        <v>0.9996098550115712</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="M13">
-        <v>1.000585222598009</v>
+        <v>1.001533778227947</v>
       </c>
       <c r="N13">
-        <v>1.000585222598009</v>
+        <v>1.001533778227947</v>
       </c>
       <c r="O13">
-        <v>1.000676254498568</v>
+        <v>1.001772365021995</v>
       </c>
       <c r="P13">
-        <v>1.000260100069197</v>
+        <v>1.000681679564976</v>
       </c>
       <c r="Q13">
-        <v>1.000260100069197</v>
+        <v>1.000681679564976</v>
       </c>
       <c r="R13">
-        <v>1.00009753880479</v>
+        <v>1.000255630233491</v>
       </c>
       <c r="S13">
-        <v>1.00009753880479</v>
+        <v>1.000255630233491</v>
       </c>
       <c r="T13">
-        <v>1.000034680298592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000090890740376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9963361977199917</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="D14">
-        <v>1.014655233842102</v>
+        <v>0.9640701699999997</v>
       </c>
       <c r="E14">
-        <v>0.9963361977199917</v>
+        <v>0.9640701699999997</v>
       </c>
       <c r="F14">
-        <v>0.9963361977199917</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="G14">
-        <v>0.9902298460400668</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="H14">
-        <v>1.00806036977633</v>
+        <v>0.9802385899999995</v>
       </c>
       <c r="I14">
-        <v>0.9963361977199917</v>
+        <v>1.0239532</v>
       </c>
       <c r="J14">
-        <v>1.014655233842102</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="K14">
-        <v>0.9963361977199917</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="L14">
-        <v>0.9963361977199917</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="M14">
-        <v>1.005495715781047</v>
+        <v>0.9865263350000002</v>
       </c>
       <c r="N14">
-        <v>1.005495715781047</v>
+        <v>0.9865263350000002</v>
       </c>
       <c r="O14">
-        <v>1.006350600446141</v>
+        <v>0.9844304199999999</v>
       </c>
       <c r="P14">
-        <v>1.002442543094028</v>
+        <v>0.9940117233333338</v>
       </c>
       <c r="Q14">
-        <v>1.002442543094028</v>
+        <v>0.9940117233333338</v>
       </c>
       <c r="R14">
-        <v>1.000915956750519</v>
+        <v>0.9977544175000006</v>
       </c>
       <c r="S14">
-        <v>1.000915956750519</v>
+        <v>0.9977544175000006</v>
       </c>
       <c r="T14">
-        <v>1.000325673803079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.999201576666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9990288410802179</v>
+        <v>1.0042979</v>
       </c>
       <c r="D15">
-        <v>1.003884626040816</v>
+        <v>0.98280841</v>
       </c>
       <c r="E15">
-        <v>0.9990288410802179</v>
+        <v>0.98280841</v>
       </c>
       <c r="F15">
-        <v>0.9990288410802179</v>
+        <v>1.0042979</v>
       </c>
       <c r="G15">
-        <v>0.9974102468397326</v>
+        <v>1.0042979</v>
       </c>
       <c r="H15">
-        <v>1.002136542597005</v>
+        <v>0.99054463</v>
       </c>
       <c r="I15">
-        <v>0.9990288410802179</v>
+        <v>1.0114611</v>
       </c>
       <c r="J15">
-        <v>1.003884626040816</v>
+        <v>1.0042979</v>
       </c>
       <c r="K15">
-        <v>0.9990288410802179</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>0.9990288410802179</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>1.001456733560517</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>1.001456733560517</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>1.00168333657268</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>1.000647436067084</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>1.000647436067084</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>1.000242787320368</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>1.000242787320368</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>1.000086323119701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000603709342</v>
+        <v>1.0102465</v>
       </c>
       <c r="D16">
-        <v>0.9999975885489687</v>
+        <v>0.95901382</v>
       </c>
       <c r="E16">
-        <v>1.000000603709342</v>
+        <v>0.95901382</v>
       </c>
       <c r="F16">
-        <v>1.000000603709342</v>
+        <v>1.0102465</v>
       </c>
       <c r="G16">
-        <v>1.000001607901219</v>
+        <v>1.0102465</v>
       </c>
       <c r="H16">
-        <v>0.9999986738678638</v>
+        <v>0.9774576</v>
       </c>
       <c r="I16">
-        <v>1.000000603709342</v>
+        <v>1.0273241</v>
       </c>
       <c r="J16">
-        <v>0.9999975885489687</v>
+        <v>1.0102465</v>
       </c>
       <c r="K16">
-        <v>1.000000603709342</v>
+        <v>1.0102465</v>
       </c>
       <c r="L16">
-        <v>1.000000603709342</v>
+        <v>1.0102465</v>
       </c>
       <c r="M16">
-        <v>0.9999990961291555</v>
+        <v>0.98463016</v>
       </c>
       <c r="N16">
-        <v>0.9999990961291555</v>
+        <v>0.98463016</v>
       </c>
       <c r="O16">
-        <v>0.9999989553753915</v>
+        <v>0.9822393066666667</v>
       </c>
       <c r="P16">
-        <v>0.9999995986558844</v>
+        <v>0.99316894</v>
       </c>
       <c r="Q16">
-        <v>0.9999995986558844</v>
+        <v>0.99316894</v>
       </c>
       <c r="R16">
-        <v>0.9999998499192488</v>
+        <v>0.99743833</v>
       </c>
       <c r="S16">
-        <v>0.9999998499192488</v>
+        <v>0.99743833</v>
       </c>
       <c r="T16">
-        <v>0.9999999469076797</v>
+        <v>0.99908917</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000012764622813</v>
+        <v>0.99792634</v>
       </c>
       <c r="D17">
-        <v>0.9999489454760588</v>
+        <v>1.0082946</v>
       </c>
       <c r="E17">
-        <v>1.000012764622813</v>
+        <v>1.0082946</v>
       </c>
       <c r="F17">
-        <v>1.000012764622813</v>
+        <v>0.99792634</v>
       </c>
       <c r="G17">
-        <v>1.000034036523309</v>
+        <v>0.99792634</v>
       </c>
       <c r="H17">
-        <v>0.9999719202898323</v>
+        <v>1.0045621</v>
       </c>
       <c r="I17">
-        <v>1.000012764622813</v>
+        <v>0.9944702399999999</v>
       </c>
       <c r="J17">
-        <v>0.9999489454760588</v>
+        <v>0.99792634</v>
       </c>
       <c r="K17">
-        <v>1.000012764622813</v>
+        <v>0.99792634</v>
       </c>
       <c r="L17">
-        <v>1.000012764622813</v>
+        <v>0.99792634</v>
       </c>
       <c r="M17">
-        <v>0.9999808550494358</v>
+        <v>1.00311047</v>
       </c>
       <c r="N17">
-        <v>0.9999808550494358</v>
+        <v>1.00311047</v>
       </c>
       <c r="O17">
-        <v>0.9999778767962346</v>
+        <v>1.003594346666667</v>
       </c>
       <c r="P17">
-        <v>0.9999914915738947</v>
+        <v>1.001382426666667</v>
       </c>
       <c r="Q17">
-        <v>0.9999914915738947</v>
+        <v>1.001382426666667</v>
       </c>
       <c r="R17">
-        <v>0.9999968098361243</v>
+        <v>1.000518405</v>
       </c>
       <c r="S17">
-        <v>0.9999968098361243</v>
+        <v>1.000518405</v>
       </c>
       <c r="T17">
-        <v>0.9999988660262731</v>
+        <v>1.000184326666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000044935771085</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="D18">
-        <v>0.9998202550612528</v>
+        <v>0.986475385068493</v>
       </c>
       <c r="E18">
-        <v>1.000044935771085</v>
+        <v>0.986475385068493</v>
       </c>
       <c r="F18">
-        <v>1.000044935771085</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="G18">
-        <v>1.00011983004663</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="H18">
-        <v>0.9999011414177055</v>
+        <v>0.9925614642465752</v>
       </c>
       <c r="I18">
-        <v>1.000044935771085</v>
+        <v>1.009016419452055</v>
       </c>
       <c r="J18">
-        <v>0.9998202550612528</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="K18">
-        <v>1.000044935771085</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="L18">
-        <v>1.000044935771085</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="M18">
-        <v>0.9999325954161689</v>
+        <v>0.9949282726712327</v>
       </c>
       <c r="N18">
-        <v>0.9999325954161689</v>
+        <v>0.9949282726712327</v>
       </c>
       <c r="O18">
-        <v>0.9999221107500144</v>
+        <v>0.9941393365296802</v>
       </c>
       <c r="P18">
-        <v>0.9999700422011409</v>
+        <v>0.997745901872146</v>
       </c>
       <c r="Q18">
-        <v>0.9999700422011409</v>
+        <v>0.997745901872146</v>
       </c>
       <c r="R18">
-        <v>0.9999887655936268</v>
+        <v>0.9991547164726026</v>
       </c>
       <c r="S18">
-        <v>0.9999887655936268</v>
+        <v>0.9991547164726026</v>
       </c>
       <c r="T18">
-        <v>0.9999960056398071</v>
+        <v>0.99969945826484</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00010527554848</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="D19">
-        <v>0.9995789131743381</v>
+        <v>0.9918683484210525</v>
       </c>
       <c r="E19">
-        <v>1.00010527554848</v>
+        <v>0.9918683484210525</v>
       </c>
       <c r="F19">
-        <v>1.00010527554848</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="G19">
-        <v>1.000280724771963</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="H19">
-        <v>0.9997684049625631</v>
+        <v>0.995527595263158</v>
       </c>
       <c r="I19">
-        <v>1.00010527554848</v>
+        <v>1.005421094736842</v>
       </c>
       <c r="J19">
-        <v>0.9995789131743381</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="K19">
-        <v>1.00010527554848</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="L19">
-        <v>1.00010527554848</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="M19">
-        <v>0.9998420943614088</v>
+        <v>0.9969506284210525</v>
       </c>
       <c r="N19">
-        <v>0.9998420943614088</v>
+        <v>0.9969506284210525</v>
       </c>
       <c r="O19">
-        <v>0.9998175312284602</v>
+        <v>0.9964762840350877</v>
       </c>
       <c r="P19">
-        <v>0.9999298214237657</v>
+        <v>0.998644721754386</v>
       </c>
       <c r="Q19">
-        <v>0.9999298214237657</v>
+        <v>0.998644721754386</v>
       </c>
       <c r="R19">
-        <v>0.9999736849549442</v>
+        <v>0.9994917684210527</v>
       </c>
       <c r="S19">
-        <v>0.9999736849549442</v>
+        <v>0.9994917684210527</v>
       </c>
       <c r="T19">
-        <v>0.9999906449257171</v>
+        <v>0.9998192939473686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="D20">
+        <v>0.9840411878947369</v>
+      </c>
+      <c r="E20">
+        <v>0.9840411878947369</v>
+      </c>
+      <c r="F20">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="G20">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="H20">
+        <v>0.9912226531578948</v>
+      </c>
+      <c r="I20">
+        <v>1.010639205263158</v>
+      </c>
+      <c r="J20">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="K20">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="L20">
+        <v>1.003989705263158</v>
+      </c>
+      <c r="M20">
+        <v>0.9940154465789472</v>
+      </c>
+      <c r="N20">
+        <v>0.9940154465789472</v>
+      </c>
+      <c r="O20">
+        <v>0.9930845154385964</v>
+      </c>
+      <c r="P20">
+        <v>0.9973401994736841</v>
+      </c>
+      <c r="Q20">
+        <v>0.9973401994736841</v>
+      </c>
+      <c r="R20">
+        <v>0.9990025759210526</v>
+      </c>
+      <c r="S20">
+        <v>0.9990025759210526</v>
+      </c>
+      <c r="T20">
+        <v>0.9996453603508771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="D21">
+        <v>1.014655233842102</v>
+      </c>
+      <c r="E21">
+        <v>1.014655233842102</v>
+      </c>
+      <c r="F21">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="G21">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="H21">
+        <v>1.00806036977633</v>
+      </c>
+      <c r="I21">
+        <v>0.9902298460400668</v>
+      </c>
+      <c r="J21">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="K21">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="L21">
+        <v>0.9963361977199915</v>
+      </c>
+      <c r="M21">
+        <v>1.005495715781046</v>
+      </c>
+      <c r="N21">
+        <v>1.005495715781046</v>
+      </c>
+      <c r="O21">
+        <v>1.006350600446141</v>
+      </c>
+      <c r="P21">
+        <v>1.002442543094028</v>
+      </c>
+      <c r="Q21">
+        <v>1.002442543094028</v>
+      </c>
+      <c r="R21">
+        <v>1.000915956750519</v>
+      </c>
+      <c r="S21">
+        <v>1.000915956750519</v>
+      </c>
+      <c r="T21">
+        <v>1.000325673803079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="D22">
+        <v>1.003884626040816</v>
+      </c>
+      <c r="E22">
+        <v>1.003884626040816</v>
+      </c>
+      <c r="F22">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="G22">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="H22">
+        <v>1.002136542597005</v>
+      </c>
+      <c r="I22">
+        <v>0.9974102468397326</v>
+      </c>
+      <c r="J22">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="K22">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="L22">
+        <v>0.9990288410802179</v>
+      </c>
+      <c r="M22">
+        <v>1.001456733560517</v>
+      </c>
+      <c r="N22">
+        <v>1.001456733560517</v>
+      </c>
+      <c r="O22">
+        <v>1.00168333657268</v>
+      </c>
+      <c r="P22">
+        <v>1.000647436067084</v>
+      </c>
+      <c r="Q22">
+        <v>1.000647436067084</v>
+      </c>
+      <c r="R22">
+        <v>1.000242787320368</v>
+      </c>
+      <c r="S22">
+        <v>1.000242787320368</v>
+      </c>
+      <c r="T22">
+        <v>1.000086323119701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="D23">
+        <v>1.006032599017142</v>
+      </c>
+      <c r="E23">
+        <v>1.006032599017142</v>
+      </c>
+      <c r="F23">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="G23">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="H23">
+        <v>1.003317929227438</v>
+      </c>
+      <c r="I23">
+        <v>0.9959782667326055</v>
+      </c>
+      <c r="J23">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="K23">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="L23">
+        <v>0.9984918490066717</v>
+      </c>
+      <c r="M23">
+        <v>1.002262224011907</v>
+      </c>
+      <c r="N23">
+        <v>1.002262224011907</v>
+      </c>
+      <c r="O23">
+        <v>1.002614125750417</v>
+      </c>
+      <c r="P23">
+        <v>1.001005432343495</v>
+      </c>
+      <c r="Q23">
+        <v>1.001005432343495</v>
+      </c>
+      <c r="R23">
+        <v>1.000377036509289</v>
+      </c>
+      <c r="S23">
+        <v>1.000377036509289</v>
+      </c>
+      <c r="T23">
+        <v>1.000134056999533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="D24">
+        <v>1.001560590184448</v>
+      </c>
+      <c r="E24">
+        <v>1.001560590184448</v>
+      </c>
+      <c r="F24">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="G24">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="H24">
+        <v>1.000858318299684</v>
+      </c>
+      <c r="I24">
+        <v>0.9989596082727059</v>
+      </c>
+      <c r="J24">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="K24">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="L24">
+        <v>0.9996098550115712</v>
+      </c>
+      <c r="M24">
+        <v>1.000585222598009</v>
+      </c>
+      <c r="N24">
+        <v>1.000585222598009</v>
+      </c>
+      <c r="O24">
+        <v>1.000676254498568</v>
+      </c>
+      <c r="P24">
+        <v>1.000260100069197</v>
+      </c>
+      <c r="Q24">
+        <v>1.000260100069197</v>
+      </c>
+      <c r="R24">
+        <v>1.00009753880479</v>
+      </c>
+      <c r="S24">
+        <v>1.00009753880479</v>
+      </c>
+      <c r="T24">
+        <v>1.000034680298592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001971605906903</v>
+      </c>
+      <c r="D25">
+        <v>0.9921136439788754</v>
+      </c>
+      <c r="E25">
+        <v>0.9921136439788754</v>
+      </c>
+      <c r="F25">
+        <v>1.001971605906903</v>
+      </c>
+      <c r="G25">
+        <v>1.001971605906903</v>
+      </c>
+      <c r="H25">
+        <v>0.9956625038168709</v>
+      </c>
+      <c r="I25">
+        <v>1.005257572624676</v>
+      </c>
+      <c r="J25">
+        <v>1.001971605906903</v>
+      </c>
+      <c r="K25">
+        <v>1.001971605906903</v>
+      </c>
+      <c r="L25">
+        <v>1.001971605906903</v>
+      </c>
+      <c r="M25">
+        <v>0.9970426249428891</v>
+      </c>
+      <c r="N25">
+        <v>0.9970426249428891</v>
+      </c>
+      <c r="O25">
+        <v>0.9965825845675497</v>
+      </c>
+      <c r="P25">
+        <v>0.9986856185975603</v>
+      </c>
+      <c r="Q25">
+        <v>0.9986856185975603</v>
+      </c>
+      <c r="R25">
+        <v>0.999507115424896</v>
+      </c>
+      <c r="S25">
+        <v>0.999507115424896</v>
+      </c>
+      <c r="T25">
+        <v>0.9998247563568551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000535765548201</v>
+      </c>
+      <c r="D26">
+        <v>0.9978569227154032</v>
+      </c>
+      <c r="E26">
+        <v>0.9978569227154032</v>
+      </c>
+      <c r="F26">
+        <v>1.000535765548201</v>
+      </c>
+      <c r="G26">
+        <v>1.000535765548201</v>
+      </c>
+      <c r="H26">
+        <v>0.9988213012785371</v>
+      </c>
+      <c r="I26">
+        <v>1.001428723098121</v>
+      </c>
+      <c r="J26">
+        <v>1.000535765548201</v>
+      </c>
+      <c r="K26">
+        <v>1.000535765548201</v>
+      </c>
+      <c r="L26">
+        <v>1.000535765548201</v>
+      </c>
+      <c r="M26">
+        <v>0.9991963441318019</v>
+      </c>
+      <c r="N26">
+        <v>0.9991963441318019</v>
+      </c>
+      <c r="O26">
+        <v>0.9990713298473803</v>
+      </c>
+      <c r="P26">
+        <v>0.9996428179372682</v>
+      </c>
+      <c r="Q26">
+        <v>0.9996428179372682</v>
+      </c>
+      <c r="R26">
+        <v>0.9998660548400012</v>
+      </c>
+      <c r="S26">
+        <v>0.9998660548400012</v>
+      </c>
+      <c r="T26">
+        <v>0.9999523739561104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="D27">
+        <v>0.9978585545931945</v>
+      </c>
+      <c r="E27">
+        <v>0.9978585545931945</v>
+      </c>
+      <c r="F27">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="G27">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="H27">
+        <v>0.9988222237085819</v>
+      </c>
+      <c r="I27">
+        <v>1.001427614706542</v>
+      </c>
+      <c r="J27">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="K27">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="L27">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="M27">
+        <v>0.9991969577020809</v>
+      </c>
+      <c r="N27">
+        <v>0.9991969577020809</v>
+      </c>
+      <c r="O27">
+        <v>0.9990720463709146</v>
+      </c>
+      <c r="P27">
+        <v>0.9996430920717098</v>
+      </c>
+      <c r="Q27">
+        <v>0.9996430920717098</v>
+      </c>
+      <c r="R27">
+        <v>0.9998661592565242</v>
+      </c>
+      <c r="S27">
+        <v>0.9998661592565242</v>
+      </c>
+      <c r="T27">
+        <v>0.999952412573537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="D28">
+        <v>0.9990727522987438</v>
+      </c>
+      <c r="E28">
+        <v>0.9990727522987438</v>
+      </c>
+      <c r="F28">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="G28">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="H28">
+        <v>0.9994900210643917</v>
+      </c>
+      <c r="I28">
+        <v>1.000618164188297</v>
+      </c>
+      <c r="J28">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="K28">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="L28">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="M28">
+        <v>0.9996522792653948</v>
+      </c>
+      <c r="N28">
+        <v>0.9996522792653948</v>
+      </c>
+      <c r="O28">
+        <v>0.9995981931983938</v>
+      </c>
+      <c r="P28">
+        <v>0.9998454549209451</v>
+      </c>
+      <c r="Q28">
+        <v>0.9998454549209451</v>
+      </c>
+      <c r="R28">
+        <v>0.9999420427487203</v>
+      </c>
+      <c r="S28">
+        <v>0.9999420427487203</v>
+      </c>
+      <c r="T28">
+        <v>0.9999793927079285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9985686798059593</v>
+      </c>
+      <c r="D29">
+        <v>1.005725235914562</v>
+      </c>
+      <c r="E29">
+        <v>1.005725235914562</v>
+      </c>
+      <c r="F29">
+        <v>0.9985686798059593</v>
+      </c>
+      <c r="G29">
+        <v>0.9985686798059593</v>
+      </c>
+      <c r="H29">
+        <v>1.003148890661165</v>
+      </c>
+      <c r="I29">
+        <v>0.9961831709915253</v>
+      </c>
+      <c r="J29">
+        <v>0.9985686798059593</v>
+      </c>
+      <c r="K29">
+        <v>0.9985686798059593</v>
+      </c>
+      <c r="L29">
+        <v>0.9985686798059593</v>
+      </c>
+      <c r="M29">
+        <v>1.002146957860261</v>
+      </c>
+      <c r="N29">
+        <v>1.002146957860261</v>
+      </c>
+      <c r="O29">
+        <v>1.002480935460562</v>
+      </c>
+      <c r="P29">
+        <v>1.000954198508827</v>
+      </c>
+      <c r="Q29">
+        <v>1.000954198508827</v>
+      </c>
+      <c r="R29">
+        <v>1.00035781883311</v>
+      </c>
+      <c r="S29">
+        <v>1.00035781883311</v>
+      </c>
+      <c r="T29">
+        <v>1.000127222830855</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001395500756266</v>
+        <v>1.001279680375946</v>
       </c>
       <c r="D4">
-        <v>0.9944180009954315</v>
+        <v>0.9948812840275655</v>
       </c>
       <c r="E4">
-        <v>0.9944180009954315</v>
+        <v>0.9948812840275655</v>
       </c>
       <c r="F4">
-        <v>1.001395500756266</v>
+        <v>1.001279680375946</v>
       </c>
       <c r="G4">
-        <v>1.001395500756266</v>
+        <v>1.001279680375946</v>
       </c>
       <c r="H4">
-        <v>0.9969299005166479</v>
+        <v>0.9971847058171217</v>
       </c>
       <c r="I4">
-        <v>1.00372133324045</v>
+        <v>1.003412476756347</v>
       </c>
       <c r="J4">
-        <v>1.001395500756266</v>
+        <v>1.001279680375946</v>
       </c>
       <c r="K4">
-        <v>1.001395500756266</v>
+        <v>1.001279680375946</v>
       </c>
       <c r="L4">
-        <v>1.001395500756266</v>
+        <v>1.001279680375946</v>
       </c>
       <c r="M4">
-        <v>0.9979067508758486</v>
+        <v>0.9980804822017557</v>
       </c>
       <c r="N4">
-        <v>0.9979067508758486</v>
+        <v>0.9980804822017557</v>
       </c>
       <c r="O4">
-        <v>0.9975811340894483</v>
+        <v>0.9977818900735445</v>
       </c>
       <c r="P4">
-        <v>0.9990696675026541</v>
+        <v>0.9991468815931525</v>
       </c>
       <c r="Q4">
-        <v>0.9990696675026541</v>
+        <v>0.9991468815931525</v>
       </c>
       <c r="R4">
-        <v>0.999651125816057</v>
+        <v>0.9996800812888509</v>
       </c>
       <c r="S4">
-        <v>0.999651125816057</v>
+        <v>0.9996800812888509</v>
       </c>
       <c r="T4">
-        <v>0.999875956170221</v>
+        <v>0.9998862512881453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001560861138326</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="D5">
-        <v>0.9937565660806944</v>
+        <v>0.9856637831376085</v>
       </c>
       <c r="E5">
-        <v>0.9937565660806944</v>
+        <v>0.9856637831376085</v>
       </c>
       <c r="F5">
-        <v>1.001560861138326</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="G5">
-        <v>1.001560861138326</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="H5">
-        <v>0.9965661109510059</v>
+        <v>0.9921150806046503</v>
       </c>
       <c r="I5">
-        <v>1.004162288515847</v>
+        <v>1.00955747490653</v>
       </c>
       <c r="J5">
-        <v>1.001560861138326</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="K5">
-        <v>1.001560861138326</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="L5">
-        <v>1.001560861138326</v>
+        <v>1.003584055520957</v>
       </c>
       <c r="M5">
-        <v>0.9976587136095102</v>
+        <v>0.9946239193292826</v>
       </c>
       <c r="N5">
-        <v>0.9976587136095102</v>
+        <v>0.9946239193292826</v>
       </c>
       <c r="O5">
-        <v>0.9972945127233421</v>
+        <v>0.9937876397544052</v>
       </c>
       <c r="P5">
-        <v>0.9989594294524489</v>
+        <v>0.9976106313931741</v>
       </c>
       <c r="Q5">
-        <v>0.9989594294524489</v>
+        <v>0.9976106313931741</v>
       </c>
       <c r="R5">
-        <v>0.9996097873739181</v>
+        <v>0.9991039874251197</v>
       </c>
       <c r="S5">
-        <v>0.9996097873739181</v>
+        <v>0.9991039874251197</v>
       </c>
       <c r="T5">
-        <v>0.9998612581604208</v>
+        <v>0.9996814175352765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.005122876828571</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="D6">
-        <v>0.9795085804202431</v>
+        <v>0.9944180009954315</v>
       </c>
       <c r="E6">
-        <v>0.9795085804202431</v>
+        <v>0.9944180009954315</v>
       </c>
       <c r="F6">
-        <v>1.005122876828571</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="G6">
-        <v>1.005122876828571</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="H6">
-        <v>0.9887297173068447</v>
+        <v>0.9969299005166479</v>
       </c>
       <c r="I6">
-        <v>1.013660936081432</v>
+        <v>1.00372133324045</v>
       </c>
       <c r="J6">
-        <v>1.005122876828571</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="K6">
-        <v>1.005122876828571</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="L6">
-        <v>1.005122876828571</v>
+        <v>1.001395500756266</v>
       </c>
       <c r="M6">
-        <v>0.9923157286244071</v>
+        <v>0.9979067508758486</v>
       </c>
       <c r="N6">
-        <v>0.9923157286244071</v>
+        <v>0.9979067508758486</v>
       </c>
       <c r="O6">
-        <v>0.991120391518553</v>
+        <v>0.9975811340894483</v>
       </c>
       <c r="P6">
-        <v>0.9965847780257949</v>
+        <v>0.9990696675026541</v>
       </c>
       <c r="Q6">
-        <v>0.9965847780257949</v>
+        <v>0.9990696675026541</v>
       </c>
       <c r="R6">
-        <v>0.9987193027264889</v>
+        <v>0.999651125816057</v>
       </c>
       <c r="S6">
-        <v>0.9987193027264889</v>
+        <v>0.999651125816057</v>
       </c>
       <c r="T6">
-        <v>0.9995446440490388</v>
+        <v>0.999875956170221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000170108405155</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="D7">
-        <v>0.9993195708470254</v>
+        <v>0.9937565660806944</v>
       </c>
       <c r="E7">
-        <v>0.9993195708470254</v>
+        <v>0.9937565660806944</v>
       </c>
       <c r="F7">
-        <v>1.000170108405155</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="G7">
-        <v>1.000170108405155</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="H7">
-        <v>0.9996257640284593</v>
+        <v>0.9965661109510059</v>
       </c>
       <c r="I7">
-        <v>1.000453620250091</v>
+        <v>1.004162288515847</v>
       </c>
       <c r="J7">
-        <v>1.000170108405155</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="K7">
-        <v>1.000170108405155</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="L7">
-        <v>1.000170108405155</v>
+        <v>1.001560861138326</v>
       </c>
       <c r="M7">
-        <v>0.9997448396260902</v>
+        <v>0.9976587136095102</v>
       </c>
       <c r="N7">
-        <v>0.9997448396260902</v>
+        <v>0.9976587136095102</v>
       </c>
       <c r="O7">
-        <v>0.9997051477602131</v>
+        <v>0.9972945127233421</v>
       </c>
       <c r="P7">
-        <v>0.9998865958857784</v>
+        <v>0.9989594294524489</v>
       </c>
       <c r="Q7">
-        <v>0.9998865958857784</v>
+        <v>0.9989594294524489</v>
       </c>
       <c r="R7">
-        <v>0.9999574740156225</v>
+        <v>0.9996097873739181</v>
       </c>
       <c r="S7">
-        <v>0.9999574740156225</v>
+        <v>0.9996097873739181</v>
       </c>
       <c r="T7">
-        <v>0.9999848800568399</v>
+        <v>0.9998612581604208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000012764622813</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="D8">
-        <v>0.9999489454760588</v>
+        <v>0.9795085804202431</v>
       </c>
       <c r="E8">
-        <v>0.9999489454760588</v>
+        <v>0.9795085804202431</v>
       </c>
       <c r="F8">
-        <v>1.000012764622813</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="G8">
-        <v>1.000012764622813</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="H8">
-        <v>0.9999719202898323</v>
+        <v>0.9887297173068447</v>
       </c>
       <c r="I8">
-        <v>1.000034036523309</v>
+        <v>1.013660936081432</v>
       </c>
       <c r="J8">
-        <v>1.000012764622813</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="K8">
-        <v>1.000012764622813</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="L8">
-        <v>1.000012764622813</v>
+        <v>1.005122876828571</v>
       </c>
       <c r="M8">
-        <v>0.9999808550494358</v>
+        <v>0.9923157286244071</v>
       </c>
       <c r="N8">
-        <v>0.9999808550494358</v>
+        <v>0.9923157286244071</v>
       </c>
       <c r="O8">
-        <v>0.9999778767962346</v>
+        <v>0.991120391518553</v>
       </c>
       <c r="P8">
-        <v>0.9999914915738947</v>
+        <v>0.9965847780257949</v>
       </c>
       <c r="Q8">
-        <v>0.9999914915738947</v>
+        <v>0.9965847780257949</v>
       </c>
       <c r="R8">
-        <v>0.9999968098361243</v>
+        <v>0.9987193027264889</v>
       </c>
       <c r="S8">
-        <v>0.9999968098361243</v>
+        <v>0.9987193027264889</v>
       </c>
       <c r="T8">
-        <v>0.9999988660262731</v>
+        <v>0.9995446440490388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000281751414472</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="D9">
-        <v>0.9988729970463193</v>
+        <v>0.9993195708470254</v>
       </c>
       <c r="E9">
-        <v>0.9988729970463193</v>
+        <v>0.9993195708470254</v>
       </c>
       <c r="F9">
-        <v>1.000281751414472</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="G9">
-        <v>1.000281751414472</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="H9">
-        <v>0.9993801498801717</v>
+        <v>0.9996257640284593</v>
       </c>
       <c r="I9">
-        <v>1.000751335312004</v>
+        <v>1.000453620250091</v>
       </c>
       <c r="J9">
-        <v>1.000281751414472</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="K9">
-        <v>1.000281751414472</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="L9">
-        <v>1.000281751414472</v>
+        <v>1.000170108405155</v>
       </c>
       <c r="M9">
-        <v>0.9995773742303958</v>
+        <v>0.9997448396260902</v>
       </c>
       <c r="N9">
-        <v>0.9995773742303958</v>
+        <v>0.9997448396260902</v>
       </c>
       <c r="O9">
-        <v>0.9995116327803211</v>
+        <v>0.9997051477602131</v>
       </c>
       <c r="P9">
-        <v>0.999812166625088</v>
+        <v>0.9998865958857784</v>
       </c>
       <c r="Q9">
-        <v>0.999812166625088</v>
+        <v>0.9998865958857784</v>
       </c>
       <c r="R9">
-        <v>0.9999295628224341</v>
+        <v>0.9999574740156225</v>
       </c>
       <c r="S9">
-        <v>0.9999295628224341</v>
+        <v>0.9999574740156225</v>
       </c>
       <c r="T9">
-        <v>0.9999749560803187</v>
+        <v>0.9999848800568399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.005199077977777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="D10">
-        <v>0.9792037760727862</v>
+        <v>0.9999489454760588</v>
       </c>
       <c r="E10">
-        <v>0.9792037760727862</v>
+        <v>0.9999489454760588</v>
       </c>
       <c r="F10">
-        <v>1.005199077977777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="G10">
-        <v>1.005199077977777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="H10">
-        <v>0.9885620742269422</v>
+        <v>0.9999719202898323</v>
       </c>
       <c r="I10">
-        <v>1.013864138936496</v>
+        <v>1.000034036523309</v>
       </c>
       <c r="J10">
-        <v>1.005199077977777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="K10">
-        <v>1.005199077977777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="L10">
-        <v>1.005199077977777</v>
+        <v>1.000012764622813</v>
       </c>
       <c r="M10">
-        <v>0.9922014270252817</v>
+        <v>0.9999808550494358</v>
       </c>
       <c r="N10">
-        <v>0.9922014270252817</v>
+        <v>0.9999808550494358</v>
       </c>
       <c r="O10">
-        <v>0.9909883094258353</v>
+        <v>0.9999778767962346</v>
       </c>
       <c r="P10">
-        <v>0.99653397734278</v>
+        <v>0.9999914915738947</v>
       </c>
       <c r="Q10">
-        <v>0.99653397734278</v>
+        <v>0.9999914915738947</v>
       </c>
       <c r="R10">
-        <v>0.9987002525015294</v>
+        <v>0.9999968098361243</v>
       </c>
       <c r="S10">
-        <v>0.9987002525015294</v>
+        <v>0.9999968098361243</v>
       </c>
       <c r="T10">
-        <v>0.9995378705282593</v>
+        <v>0.9999988660262731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001487974953834</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="D11">
-        <v>0.9940481065391809</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="E11">
-        <v>0.9940481065391809</v>
+        <v>0.9988729970463193</v>
       </c>
       <c r="F11">
-        <v>1.001487974953834</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="G11">
-        <v>1.001487974953834</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="H11">
-        <v>0.9967264592264006</v>
+        <v>0.9993801498801717</v>
       </c>
       <c r="I11">
-        <v>1.003967930261245</v>
+        <v>1.000751335312004</v>
       </c>
       <c r="J11">
-        <v>1.001487974953834</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="K11">
-        <v>1.001487974953834</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="L11">
-        <v>1.001487974953834</v>
+        <v>1.000281751414472</v>
       </c>
       <c r="M11">
-        <v>0.9977680407465074</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="N11">
-        <v>0.9977680407465074</v>
+        <v>0.9995773742303958</v>
       </c>
       <c r="O11">
-        <v>0.9974208469064717</v>
+        <v>0.9995116327803211</v>
       </c>
       <c r="P11">
-        <v>0.9990080188156162</v>
+        <v>0.999812166625088</v>
       </c>
       <c r="Q11">
-        <v>0.9990080188156162</v>
+        <v>0.999812166625088</v>
       </c>
       <c r="R11">
-        <v>0.9996280078501707</v>
+        <v>0.9999295628224341</v>
       </c>
       <c r="S11">
-        <v>0.9996280078501707</v>
+        <v>0.9999295628224341</v>
       </c>
       <c r="T11">
-        <v>0.9998677368147213</v>
+        <v>0.9999749560803187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001597835747366</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="D12">
-        <v>0.9936086699684205</v>
+        <v>0.9792037760727862</v>
       </c>
       <c r="E12">
-        <v>0.9936086699684205</v>
+        <v>0.9792037760727862</v>
       </c>
       <c r="F12">
-        <v>1.001597835747366</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="G12">
-        <v>1.001597835747366</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="H12">
-        <v>0.9964847663999996</v>
+        <v>0.9885620742269422</v>
       </c>
       <c r="I12">
-        <v>1.004260885452627</v>
+        <v>1.013864138936496</v>
       </c>
       <c r="J12">
-        <v>1.001597835747366</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="K12">
-        <v>1.001597835747366</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="L12">
-        <v>1.001597835747366</v>
+        <v>1.005199077977777</v>
       </c>
       <c r="M12">
-        <v>0.9976032528578935</v>
+        <v>0.9922014270252817</v>
       </c>
       <c r="N12">
-        <v>0.9976032528578935</v>
+        <v>0.9922014270252817</v>
       </c>
       <c r="O12">
-        <v>0.9972304240385955</v>
+        <v>0.9909883094258353</v>
       </c>
       <c r="P12">
-        <v>0.9989347804877179</v>
+        <v>0.99653397734278</v>
       </c>
       <c r="Q12">
-        <v>0.9989347804877179</v>
+        <v>0.99653397734278</v>
       </c>
       <c r="R12">
-        <v>0.9996005443026301</v>
+        <v>0.9987002525015294</v>
       </c>
       <c r="S12">
-        <v>0.9996005443026301</v>
+        <v>0.9987002525015294</v>
       </c>
       <c r="T12">
-        <v>0.9998579715105246</v>
+        <v>0.9995378705282593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9989774822390338</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="D13">
-        <v>1.004090074216861</v>
+        <v>0.9940481065391809</v>
       </c>
       <c r="E13">
-        <v>1.004090074216861</v>
+        <v>0.9940481065391809</v>
       </c>
       <c r="F13">
-        <v>0.9989774822390338</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="G13">
-        <v>0.9989774822390338</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="H13">
-        <v>1.002249538610089</v>
+        <v>0.9967264592264006</v>
       </c>
       <c r="I13">
-        <v>0.9972732848982016</v>
+        <v>1.003967930261245</v>
       </c>
       <c r="J13">
-        <v>0.9989774822390338</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="K13">
-        <v>0.9989774822390338</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="L13">
-        <v>0.9989774822390338</v>
+        <v>1.001487974953834</v>
       </c>
       <c r="M13">
-        <v>1.001533778227947</v>
+        <v>0.9977680407465074</v>
       </c>
       <c r="N13">
-        <v>1.001533778227947</v>
+        <v>0.9977680407465074</v>
       </c>
       <c r="O13">
-        <v>1.001772365021995</v>
+        <v>0.9974208469064717</v>
       </c>
       <c r="P13">
-        <v>1.000681679564976</v>
+        <v>0.9990080188156162</v>
       </c>
       <c r="Q13">
-        <v>1.000681679564976</v>
+        <v>0.9990080188156162</v>
       </c>
       <c r="R13">
-        <v>1.000255630233491</v>
+        <v>0.9996280078501707</v>
       </c>
       <c r="S13">
-        <v>1.000255630233491</v>
+        <v>0.9996280078501707</v>
       </c>
       <c r="T13">
-        <v>1.000090890740376</v>
+        <v>0.9998677368147213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008982500000001</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="D14">
-        <v>0.9640701699999997</v>
+        <v>0.9936086699684205</v>
       </c>
       <c r="E14">
-        <v>0.9640701699999997</v>
+        <v>0.9936086699684205</v>
       </c>
       <c r="F14">
-        <v>1.008982500000001</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="G14">
-        <v>1.008982500000001</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="H14">
-        <v>0.9802385899999995</v>
+        <v>0.9964847663999996</v>
       </c>
       <c r="I14">
-        <v>1.0239532</v>
+        <v>1.004260885452627</v>
       </c>
       <c r="J14">
-        <v>1.008982500000001</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="K14">
-        <v>1.008982500000001</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="L14">
-        <v>1.008982500000001</v>
+        <v>1.001597835747366</v>
       </c>
       <c r="M14">
-        <v>0.9865263350000002</v>
+        <v>0.9976032528578935</v>
       </c>
       <c r="N14">
-        <v>0.9865263350000002</v>
+        <v>0.9976032528578935</v>
       </c>
       <c r="O14">
-        <v>0.9844304199999999</v>
+        <v>0.9972304240385955</v>
       </c>
       <c r="P14">
-        <v>0.9940117233333338</v>
+        <v>0.9989347804877179</v>
       </c>
       <c r="Q14">
-        <v>0.9940117233333338</v>
+        <v>0.9989347804877179</v>
       </c>
       <c r="R14">
-        <v>0.9977544175000006</v>
+        <v>0.9996005443026301</v>
       </c>
       <c r="S14">
-        <v>0.9977544175000006</v>
+        <v>0.9996005443026301</v>
       </c>
       <c r="T14">
-        <v>0.999201576666667</v>
+        <v>0.9998579715105246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0042979</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="D15">
-        <v>0.98280841</v>
+        <v>1.004090074216861</v>
       </c>
       <c r="E15">
-        <v>0.98280841</v>
+        <v>1.004090074216861</v>
       </c>
       <c r="F15">
-        <v>1.0042979</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="G15">
-        <v>1.0042979</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="H15">
-        <v>0.99054463</v>
+        <v>1.002249538610089</v>
       </c>
       <c r="I15">
-        <v>1.0114611</v>
+        <v>0.9972732848982016</v>
       </c>
       <c r="J15">
-        <v>1.0042979</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>0.9989774822390338</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>1.001533778227947</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>1.001533778227947</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>1.001772365021995</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>1.000681679564976</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>1.000681679564976</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>1.000255630233491</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>1.000255630233491</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>1.000090890740376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0102465</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="D16">
-        <v>0.95901382</v>
+        <v>0.9640701699999997</v>
       </c>
       <c r="E16">
-        <v>0.95901382</v>
+        <v>0.9640701699999997</v>
       </c>
       <c r="F16">
-        <v>1.0102465</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="G16">
-        <v>1.0102465</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="H16">
-        <v>0.9774576</v>
+        <v>0.9802385899999995</v>
       </c>
       <c r="I16">
-        <v>1.0273241</v>
+        <v>1.0239532</v>
       </c>
       <c r="J16">
-        <v>1.0102465</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="K16">
-        <v>1.0102465</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="L16">
-        <v>1.0102465</v>
+        <v>1.008982500000001</v>
       </c>
       <c r="M16">
-        <v>0.98463016</v>
+        <v>0.9865263350000002</v>
       </c>
       <c r="N16">
-        <v>0.98463016</v>
+        <v>0.9865263350000002</v>
       </c>
       <c r="O16">
-        <v>0.9822393066666667</v>
+        <v>0.9844304199999999</v>
       </c>
       <c r="P16">
-        <v>0.99316894</v>
+        <v>0.9940117233333338</v>
       </c>
       <c r="Q16">
-        <v>0.99316894</v>
+        <v>0.9940117233333338</v>
       </c>
       <c r="R16">
-        <v>0.99743833</v>
+        <v>0.9977544175000006</v>
       </c>
       <c r="S16">
-        <v>0.99743833</v>
+        <v>0.9977544175000006</v>
       </c>
       <c r="T16">
-        <v>0.99908917</v>
+        <v>0.999201576666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99792634</v>
+        <v>1.0042979</v>
       </c>
       <c r="D17">
-        <v>1.0082946</v>
+        <v>0.98280841</v>
       </c>
       <c r="E17">
-        <v>1.0082946</v>
+        <v>0.98280841</v>
       </c>
       <c r="F17">
-        <v>0.99792634</v>
+        <v>1.0042979</v>
       </c>
       <c r="G17">
-        <v>0.99792634</v>
+        <v>1.0042979</v>
       </c>
       <c r="H17">
-        <v>1.0045621</v>
+        <v>0.99054463</v>
       </c>
       <c r="I17">
-        <v>0.9944702399999999</v>
+        <v>1.0114611</v>
       </c>
       <c r="J17">
-        <v>0.99792634</v>
+        <v>1.0042979</v>
       </c>
       <c r="K17">
-        <v>0.99792634</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>0.99792634</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>1.00311047</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>1.00311047</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>1.003594346666667</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>1.001382426666667</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>1.001382426666667</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>1.000518405</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>1.000518405</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>1.000184326666667</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.003381160273972</v>
+        <v>1.0102465</v>
       </c>
       <c r="D18">
-        <v>0.986475385068493</v>
+        <v>0.95901382</v>
       </c>
       <c r="E18">
-        <v>0.986475385068493</v>
+        <v>0.95901382</v>
       </c>
       <c r="F18">
-        <v>1.003381160273972</v>
+        <v>1.0102465</v>
       </c>
       <c r="G18">
-        <v>1.003381160273972</v>
+        <v>1.0102465</v>
       </c>
       <c r="H18">
-        <v>0.9925614642465752</v>
+        <v>0.9774576</v>
       </c>
       <c r="I18">
-        <v>1.009016419452055</v>
+        <v>1.0273241</v>
       </c>
       <c r="J18">
-        <v>1.003381160273972</v>
+        <v>1.0102465</v>
       </c>
       <c r="K18">
-        <v>1.003381160273972</v>
+        <v>1.0102465</v>
       </c>
       <c r="L18">
-        <v>1.003381160273972</v>
+        <v>1.0102465</v>
       </c>
       <c r="M18">
-        <v>0.9949282726712327</v>
+        <v>0.98463016</v>
       </c>
       <c r="N18">
-        <v>0.9949282726712327</v>
+        <v>0.98463016</v>
       </c>
       <c r="O18">
-        <v>0.9941393365296802</v>
+        <v>0.9822393066666667</v>
       </c>
       <c r="P18">
-        <v>0.997745901872146</v>
+        <v>0.99316894</v>
       </c>
       <c r="Q18">
-        <v>0.997745901872146</v>
+        <v>0.99316894</v>
       </c>
       <c r="R18">
-        <v>0.9991547164726026</v>
+        <v>0.99743833</v>
       </c>
       <c r="S18">
-        <v>0.9991547164726026</v>
+        <v>0.99743833</v>
       </c>
       <c r="T18">
-        <v>0.99969945826484</v>
+        <v>0.99908917</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.002032908421053</v>
+        <v>0.99792634</v>
       </c>
       <c r="D19">
-        <v>0.9918683484210525</v>
+        <v>1.0082946</v>
       </c>
       <c r="E19">
-        <v>0.9918683484210525</v>
+        <v>1.0082946</v>
       </c>
       <c r="F19">
-        <v>1.002032908421053</v>
+        <v>0.99792634</v>
       </c>
       <c r="G19">
-        <v>1.002032908421053</v>
+        <v>0.99792634</v>
       </c>
       <c r="H19">
-        <v>0.995527595263158</v>
+        <v>1.0045621</v>
       </c>
       <c r="I19">
-        <v>1.005421094736842</v>
+        <v>0.9944702399999999</v>
       </c>
       <c r="J19">
-        <v>1.002032908421053</v>
+        <v>0.99792634</v>
       </c>
       <c r="K19">
-        <v>1.002032908421053</v>
+        <v>0.99792634</v>
       </c>
       <c r="L19">
-        <v>1.002032908421053</v>
+        <v>0.99792634</v>
       </c>
       <c r="M19">
-        <v>0.9969506284210525</v>
+        <v>1.00311047</v>
       </c>
       <c r="N19">
-        <v>0.9969506284210525</v>
+        <v>1.00311047</v>
       </c>
       <c r="O19">
-        <v>0.9964762840350877</v>
+        <v>1.003594346666667</v>
       </c>
       <c r="P19">
-        <v>0.998644721754386</v>
+        <v>1.001382426666667</v>
       </c>
       <c r="Q19">
-        <v>0.998644721754386</v>
+        <v>1.001382426666667</v>
       </c>
       <c r="R19">
-        <v>0.9994917684210527</v>
+        <v>1.000518405</v>
       </c>
       <c r="S19">
-        <v>0.9994917684210527</v>
+        <v>1.000518405</v>
       </c>
       <c r="T19">
-        <v>0.9998192939473686</v>
+        <v>1.000184326666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003989705263158</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="D20">
-        <v>0.9840411878947369</v>
+        <v>0.986475385068493</v>
       </c>
       <c r="E20">
-        <v>0.9840411878947369</v>
+        <v>0.986475385068493</v>
       </c>
       <c r="F20">
-        <v>1.003989705263158</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="G20">
-        <v>1.003989705263158</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="H20">
-        <v>0.9912226531578948</v>
+        <v>0.9925614642465752</v>
       </c>
       <c r="I20">
-        <v>1.010639205263158</v>
+        <v>1.009016419452055</v>
       </c>
       <c r="J20">
-        <v>1.003989705263158</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="K20">
-        <v>1.003989705263158</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="L20">
-        <v>1.003989705263158</v>
+        <v>1.003381160273972</v>
       </c>
       <c r="M20">
-        <v>0.9940154465789472</v>
+        <v>0.9949282726712327</v>
       </c>
       <c r="N20">
-        <v>0.9940154465789472</v>
+        <v>0.9949282726712327</v>
       </c>
       <c r="O20">
-        <v>0.9930845154385964</v>
+        <v>0.9941393365296802</v>
       </c>
       <c r="P20">
-        <v>0.9973401994736841</v>
+        <v>0.997745901872146</v>
       </c>
       <c r="Q20">
-        <v>0.9973401994736841</v>
+        <v>0.997745901872146</v>
       </c>
       <c r="R20">
-        <v>0.9990025759210526</v>
+        <v>0.9991547164726026</v>
       </c>
       <c r="S20">
-        <v>0.9990025759210526</v>
+        <v>0.9991547164726026</v>
       </c>
       <c r="T20">
-        <v>0.9996453603508771</v>
+        <v>0.99969945826484</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9963361977199915</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="D21">
-        <v>1.014655233842102</v>
+        <v>0.9918683484210525</v>
       </c>
       <c r="E21">
-        <v>1.014655233842102</v>
+        <v>0.9918683484210525</v>
       </c>
       <c r="F21">
-        <v>0.9963361977199915</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="G21">
-        <v>0.9963361977199915</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="H21">
-        <v>1.00806036977633</v>
+        <v>0.995527595263158</v>
       </c>
       <c r="I21">
-        <v>0.9902298460400668</v>
+        <v>1.005421094736842</v>
       </c>
       <c r="J21">
-        <v>0.9963361977199915</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="K21">
-        <v>0.9963361977199915</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="L21">
-        <v>0.9963361977199915</v>
+        <v>1.002032908421053</v>
       </c>
       <c r="M21">
-        <v>1.005495715781046</v>
+        <v>0.9969506284210525</v>
       </c>
       <c r="N21">
-        <v>1.005495715781046</v>
+        <v>0.9969506284210525</v>
       </c>
       <c r="O21">
-        <v>1.006350600446141</v>
+        <v>0.9964762840350877</v>
       </c>
       <c r="P21">
-        <v>1.002442543094028</v>
+        <v>0.998644721754386</v>
       </c>
       <c r="Q21">
-        <v>1.002442543094028</v>
+        <v>0.998644721754386</v>
       </c>
       <c r="R21">
-        <v>1.000915956750519</v>
+        <v>0.9994917684210527</v>
       </c>
       <c r="S21">
-        <v>1.000915956750519</v>
+        <v>0.9994917684210527</v>
       </c>
       <c r="T21">
-        <v>1.000325673803079</v>
+        <v>0.9998192939473686</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9990288410802179</v>
+        <v>1.003989705263158</v>
       </c>
       <c r="D22">
-        <v>1.003884626040816</v>
+        <v>0.9840411878947369</v>
       </c>
       <c r="E22">
-        <v>1.003884626040816</v>
+        <v>0.9840411878947369</v>
       </c>
       <c r="F22">
-        <v>0.9990288410802179</v>
+        <v>1.003989705263158</v>
       </c>
       <c r="G22">
-        <v>0.9990288410802179</v>
+        <v>1.003989705263158</v>
       </c>
       <c r="H22">
-        <v>1.002136542597005</v>
+        <v>0.9912226531578948</v>
       </c>
       <c r="I22">
-        <v>0.9974102468397326</v>
+        <v>1.010639205263158</v>
       </c>
       <c r="J22">
-        <v>0.9990288410802179</v>
+        <v>1.003989705263158</v>
       </c>
       <c r="K22">
-        <v>0.9990288410802179</v>
+        <v>1.003989705263158</v>
       </c>
       <c r="L22">
-        <v>0.9990288410802179</v>
+        <v>1.003989705263158</v>
       </c>
       <c r="M22">
-        <v>1.001456733560517</v>
+        <v>0.9940154465789472</v>
       </c>
       <c r="N22">
-        <v>1.001456733560517</v>
+        <v>0.9940154465789472</v>
       </c>
       <c r="O22">
-        <v>1.00168333657268</v>
+        <v>0.9930845154385964</v>
       </c>
       <c r="P22">
-        <v>1.000647436067084</v>
+        <v>0.9973401994736841</v>
       </c>
       <c r="Q22">
-        <v>1.000647436067084</v>
+        <v>0.9973401994736841</v>
       </c>
       <c r="R22">
-        <v>1.000242787320368</v>
+        <v>0.9990025759210526</v>
       </c>
       <c r="S22">
-        <v>1.000242787320368</v>
+        <v>0.9990025759210526</v>
       </c>
       <c r="T22">
-        <v>1.000086323119701</v>
+        <v>0.9996453603508771</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9984918490066717</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="D23">
-        <v>1.006032599017142</v>
+        <v>1.014655233842102</v>
       </c>
       <c r="E23">
-        <v>1.006032599017142</v>
+        <v>1.014655233842102</v>
       </c>
       <c r="F23">
-        <v>0.9984918490066717</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="G23">
-        <v>0.9984918490066717</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="H23">
-        <v>1.003317929227438</v>
+        <v>1.00806036977633</v>
       </c>
       <c r="I23">
-        <v>0.9959782667326055</v>
+        <v>0.9902298460400668</v>
       </c>
       <c r="J23">
-        <v>0.9984918490066717</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="K23">
-        <v>0.9984918490066717</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="L23">
-        <v>0.9984918490066717</v>
+        <v>0.9963361977199915</v>
       </c>
       <c r="M23">
-        <v>1.002262224011907</v>
+        <v>1.005495715781046</v>
       </c>
       <c r="N23">
-        <v>1.002262224011907</v>
+        <v>1.005495715781046</v>
       </c>
       <c r="O23">
-        <v>1.002614125750417</v>
+        <v>1.006350600446141</v>
       </c>
       <c r="P23">
-        <v>1.001005432343495</v>
+        <v>1.002442543094028</v>
       </c>
       <c r="Q23">
-        <v>1.001005432343495</v>
+        <v>1.002442543094028</v>
       </c>
       <c r="R23">
-        <v>1.000377036509289</v>
+        <v>1.000915956750519</v>
       </c>
       <c r="S23">
-        <v>1.000377036509289</v>
+        <v>1.000915956750519</v>
       </c>
       <c r="T23">
-        <v>1.000134056999533</v>
+        <v>1.000325673803079</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996098550115712</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="D24">
-        <v>1.001560590184448</v>
+        <v>1.003884626040816</v>
       </c>
       <c r="E24">
-        <v>1.001560590184448</v>
+        <v>1.003884626040816</v>
       </c>
       <c r="F24">
-        <v>0.9996098550115712</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="G24">
-        <v>0.9996098550115712</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="H24">
-        <v>1.000858318299684</v>
+        <v>1.002136542597005</v>
       </c>
       <c r="I24">
-        <v>0.9989596082727059</v>
+        <v>0.9974102468397326</v>
       </c>
       <c r="J24">
-        <v>0.9996098550115712</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="K24">
-        <v>0.9996098550115712</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="L24">
-        <v>0.9996098550115712</v>
+        <v>0.9990288410802179</v>
       </c>
       <c r="M24">
-        <v>1.000585222598009</v>
+        <v>1.001456733560517</v>
       </c>
       <c r="N24">
-        <v>1.000585222598009</v>
+        <v>1.001456733560517</v>
       </c>
       <c r="O24">
-        <v>1.000676254498568</v>
+        <v>1.00168333657268</v>
       </c>
       <c r="P24">
-        <v>1.000260100069197</v>
+        <v>1.000647436067084</v>
       </c>
       <c r="Q24">
-        <v>1.000260100069197</v>
+        <v>1.000647436067084</v>
       </c>
       <c r="R24">
-        <v>1.00009753880479</v>
+        <v>1.000242787320368</v>
       </c>
       <c r="S24">
-        <v>1.00009753880479</v>
+        <v>1.000242787320368</v>
       </c>
       <c r="T24">
-        <v>1.000034680298592</v>
+        <v>1.000086323119701</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.001971605906903</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="D25">
-        <v>0.9921136439788754</v>
+        <v>1.006032599017142</v>
       </c>
       <c r="E25">
-        <v>0.9921136439788754</v>
+        <v>1.006032599017142</v>
       </c>
       <c r="F25">
-        <v>1.001971605906903</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="G25">
-        <v>1.001971605906903</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="H25">
-        <v>0.9956625038168709</v>
+        <v>1.003317929227438</v>
       </c>
       <c r="I25">
-        <v>1.005257572624676</v>
+        <v>0.9959782667326055</v>
       </c>
       <c r="J25">
-        <v>1.001971605906903</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="K25">
-        <v>1.001971605906903</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="L25">
-        <v>1.001971605906903</v>
+        <v>0.9984918490066717</v>
       </c>
       <c r="M25">
-        <v>0.9970426249428891</v>
+        <v>1.002262224011907</v>
       </c>
       <c r="N25">
-        <v>0.9970426249428891</v>
+        <v>1.002262224011907</v>
       </c>
       <c r="O25">
-        <v>0.9965825845675497</v>
+        <v>1.002614125750417</v>
       </c>
       <c r="P25">
-        <v>0.9986856185975603</v>
+        <v>1.001005432343495</v>
       </c>
       <c r="Q25">
-        <v>0.9986856185975603</v>
+        <v>1.001005432343495</v>
       </c>
       <c r="R25">
-        <v>0.999507115424896</v>
+        <v>1.000377036509289</v>
       </c>
       <c r="S25">
-        <v>0.999507115424896</v>
+        <v>1.000377036509289</v>
       </c>
       <c r="T25">
-        <v>0.9998247563568551</v>
+        <v>1.000134056999533</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000535765548201</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="D26">
-        <v>0.9978569227154032</v>
+        <v>1.001560590184448</v>
       </c>
       <c r="E26">
-        <v>0.9978569227154032</v>
+        <v>1.001560590184448</v>
       </c>
       <c r="F26">
-        <v>1.000535765548201</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="G26">
-        <v>1.000535765548201</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="H26">
-        <v>0.9988213012785371</v>
+        <v>1.000858318299684</v>
       </c>
       <c r="I26">
-        <v>1.001428723098121</v>
+        <v>0.9989596082727059</v>
       </c>
       <c r="J26">
-        <v>1.000535765548201</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="K26">
-        <v>1.000535765548201</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="L26">
-        <v>1.000535765548201</v>
+        <v>0.9996098550115712</v>
       </c>
       <c r="M26">
-        <v>0.9991963441318019</v>
+        <v>1.000585222598009</v>
       </c>
       <c r="N26">
-        <v>0.9991963441318019</v>
+        <v>1.000585222598009</v>
       </c>
       <c r="O26">
-        <v>0.9990713298473803</v>
+        <v>1.000676254498568</v>
       </c>
       <c r="P26">
-        <v>0.9996428179372682</v>
+        <v>1.000260100069197</v>
       </c>
       <c r="Q26">
-        <v>0.9996428179372682</v>
+        <v>1.000260100069197</v>
       </c>
       <c r="R26">
-        <v>0.9998660548400012</v>
+        <v>1.00009753880479</v>
       </c>
       <c r="S26">
-        <v>0.9998660548400012</v>
+        <v>1.00009753880479</v>
       </c>
       <c r="T26">
-        <v>0.9999523739561104</v>
+        <v>1.000034680298592</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000535360810968</v>
+        <v>1.001971605906903</v>
       </c>
       <c r="D27">
-        <v>0.9978585545931945</v>
+        <v>0.9921136439788754</v>
       </c>
       <c r="E27">
-        <v>0.9978585545931945</v>
+        <v>0.9921136439788754</v>
       </c>
       <c r="F27">
-        <v>1.000535360810968</v>
+        <v>1.001971605906903</v>
       </c>
       <c r="G27">
-        <v>1.000535360810968</v>
+        <v>1.001971605906903</v>
       </c>
       <c r="H27">
-        <v>0.9988222237085819</v>
+        <v>0.9956625038168709</v>
       </c>
       <c r="I27">
-        <v>1.001427614706542</v>
+        <v>1.005257572624676</v>
       </c>
       <c r="J27">
-        <v>1.000535360810968</v>
+        <v>1.001971605906903</v>
       </c>
       <c r="K27">
-        <v>1.000535360810968</v>
+        <v>1.001971605906903</v>
       </c>
       <c r="L27">
-        <v>1.000535360810968</v>
+        <v>1.001971605906903</v>
       </c>
       <c r="M27">
-        <v>0.9991969577020809</v>
+        <v>0.9970426249428891</v>
       </c>
       <c r="N27">
-        <v>0.9991969577020809</v>
+        <v>0.9970426249428891</v>
       </c>
       <c r="O27">
-        <v>0.9990720463709146</v>
+        <v>0.9965825845675497</v>
       </c>
       <c r="P27">
-        <v>0.9996430920717098</v>
+        <v>0.9986856185975603</v>
       </c>
       <c r="Q27">
-        <v>0.9996430920717098</v>
+        <v>0.9986856185975603</v>
       </c>
       <c r="R27">
-        <v>0.9998661592565242</v>
+        <v>0.999507115424896</v>
       </c>
       <c r="S27">
-        <v>0.9998661592565242</v>
+        <v>0.999507115424896</v>
       </c>
       <c r="T27">
-        <v>0.999952412573537</v>
+        <v>0.9998247563568551</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000231806232046</v>
+        <v>1.000535765548201</v>
       </c>
       <c r="D28">
-        <v>0.9990727522987438</v>
+        <v>0.9978569227154032</v>
       </c>
       <c r="E28">
-        <v>0.9990727522987438</v>
+        <v>0.9978569227154032</v>
       </c>
       <c r="F28">
-        <v>1.000231806232046</v>
+        <v>1.000535765548201</v>
       </c>
       <c r="G28">
-        <v>1.000231806232046</v>
+        <v>1.000535765548201</v>
       </c>
       <c r="H28">
-        <v>0.9994900210643917</v>
+        <v>0.9988213012785371</v>
       </c>
       <c r="I28">
-        <v>1.000618164188297</v>
+        <v>1.001428723098121</v>
       </c>
       <c r="J28">
-        <v>1.000231806232046</v>
+        <v>1.000535765548201</v>
       </c>
       <c r="K28">
-        <v>1.000231806232046</v>
+        <v>1.000535765548201</v>
       </c>
       <c r="L28">
-        <v>1.000231806232046</v>
+        <v>1.000535765548201</v>
       </c>
       <c r="M28">
-        <v>0.9996522792653948</v>
+        <v>0.9991963441318019</v>
       </c>
       <c r="N28">
-        <v>0.9996522792653948</v>
+        <v>0.9991963441318019</v>
       </c>
       <c r="O28">
-        <v>0.9995981931983938</v>
+        <v>0.9990713298473803</v>
       </c>
       <c r="P28">
-        <v>0.9998454549209451</v>
+        <v>0.9996428179372682</v>
       </c>
       <c r="Q28">
-        <v>0.9998454549209451</v>
+        <v>0.9996428179372682</v>
       </c>
       <c r="R28">
-        <v>0.9999420427487203</v>
+        <v>0.9998660548400012</v>
       </c>
       <c r="S28">
-        <v>0.9999420427487203</v>
+        <v>0.9998660548400012</v>
       </c>
       <c r="T28">
-        <v>0.9999793927079285</v>
+        <v>0.9999523739561104</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="D29">
+        <v>0.9978585545931945</v>
+      </c>
+      <c r="E29">
+        <v>0.9978585545931945</v>
+      </c>
+      <c r="F29">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="G29">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="H29">
+        <v>0.9988222237085819</v>
+      </c>
+      <c r="I29">
+        <v>1.001427614706542</v>
+      </c>
+      <c r="J29">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="K29">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="L29">
+        <v>1.000535360810968</v>
+      </c>
+      <c r="M29">
+        <v>0.9991969577020809</v>
+      </c>
+      <c r="N29">
+        <v>0.9991969577020809</v>
+      </c>
+      <c r="O29">
+        <v>0.9990720463709146</v>
+      </c>
+      <c r="P29">
+        <v>0.9996430920717098</v>
+      </c>
+      <c r="Q29">
+        <v>0.9996430920717098</v>
+      </c>
+      <c r="R29">
+        <v>0.9998661592565242</v>
+      </c>
+      <c r="S29">
+        <v>0.9998661592565242</v>
+      </c>
+      <c r="T29">
+        <v>0.999952412573537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="D30">
+        <v>0.9990727522987438</v>
+      </c>
+      <c r="E30">
+        <v>0.9990727522987438</v>
+      </c>
+      <c r="F30">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="G30">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="H30">
+        <v>0.9994900210643917</v>
+      </c>
+      <c r="I30">
+        <v>1.000618164188297</v>
+      </c>
+      <c r="J30">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="K30">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="L30">
+        <v>1.000231806232046</v>
+      </c>
+      <c r="M30">
+        <v>0.9996522792653948</v>
+      </c>
+      <c r="N30">
+        <v>0.9996522792653948</v>
+      </c>
+      <c r="O30">
+        <v>0.9995981931983938</v>
+      </c>
+      <c r="P30">
+        <v>0.9998454549209451</v>
+      </c>
+      <c r="Q30">
+        <v>0.9998454549209451</v>
+      </c>
+      <c r="R30">
+        <v>0.9999420427487203</v>
+      </c>
+      <c r="S30">
+        <v>0.9999420427487203</v>
+      </c>
+      <c r="T30">
+        <v>0.9999793927079285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9985686798059593</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.005725235914562</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.005725235914562</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9985686798059593</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9985686798059593</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.003148890661165</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9961831709915253</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9985686798059593</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9985686798059593</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9985686798059593</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.002146957860261</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.002146957860261</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.002480935460562</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000954198508827</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000954198508827</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00035781883311</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00035781883311</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000127222830855</v>
       </c>
     </row>
